--- a/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>FBMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>40400</v>
+      </c>
+      <c r="F8" s="3">
         <v>37200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>37600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>33300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>30600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>25600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>25000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>18800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>17100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>16700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>16500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>15800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>11900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F17" s="3">
         <v>7800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>32600</v>
+      </c>
+      <c r="F18" s="3">
         <v>29400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>30000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>26000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>24700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>21200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>20700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>16100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>15100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>14800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>14600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>14200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>10600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-13700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-14200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-16400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-15900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-14700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-14000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-11200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-8800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-8200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-11300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-12800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-7500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F21" s="3">
         <v>16800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>16400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>10300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>10000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>7500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>7600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>6200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>5700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>7800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F23" s="3">
         <v>15800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>15800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>9700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>8800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>6500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>6700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F24" s="3">
         <v>3500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>900</v>
       </c>
       <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>900</v>
+      </c>
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F26" s="3">
         <v>12300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>12000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>7600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>6900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>5200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>5200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F27" s="3">
         <v>12300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>12000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>7600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>6900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>5200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,27 +1709,27 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2100</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F32" s="3">
         <v>13700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>14200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>16400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>15900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>14700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>14000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>11200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>8800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>8200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>11300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>12800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>7500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F33" s="3">
         <v>12300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>12000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>7600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>6900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>5200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>4700</v>
       </c>
       <c r="M33" s="3">
         <v>2400</v>
       </c>
       <c r="N33" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F35" s="3">
         <v>12300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>12000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>7600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>6900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>5200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>4700</v>
       </c>
       <c r="M35" s="3">
         <v>2400</v>
       </c>
       <c r="N35" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2138,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>107300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>89700</v>
+      </c>
+      <c r="F41" s="3">
         <v>91800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>77000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>91500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>71400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>74600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>97600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>93600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>43000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>63700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>58200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>85100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>31700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>179500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>79100</v>
+      </c>
+      <c r="F42" s="3">
         <v>68200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>89000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>157000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>87800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>47700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>22900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>68900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>48900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>29600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>34400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>63400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>30400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2484,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F48" s="3">
         <v>96700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>97100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>94600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>74800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>62300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>62300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>57400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>46400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>46200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>44800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>45400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>34600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="F49" s="3">
         <v>118600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>119200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>119900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>89800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>54400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>54900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>47700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>20000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>20400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>20200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>20200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>13800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4061800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3941900</v>
+      </c>
+      <c r="F54" s="3">
         <v>3481900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3472600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3533000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3004000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2508900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2481700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2299400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1813200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1788000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1789600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1783200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1277400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1266600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,40 +2878,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,37 +2974,43 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F59" s="3">
         <v>4400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3600</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2751,8 +3024,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,34 +3074,40 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>80600</v>
+        <v>83100</v>
       </c>
       <c r="E61" s="3">
-        <v>80600</v>
+        <v>80700</v>
       </c>
       <c r="F61" s="3">
         <v>80600</v>
       </c>
       <c r="G61" s="3">
+        <v>80600</v>
+      </c>
+      <c r="H61" s="3">
+        <v>80600</v>
+      </c>
+      <c r="I61" s="3">
         <v>80500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>75100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>75200</v>
-      </c>
-      <c r="J61" s="3">
-        <v>10300</v>
-      </c>
-      <c r="K61" s="3">
-        <v>10300</v>
       </c>
       <c r="L61" s="3">
         <v>10300</v>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>10300</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>10300</v>
+      </c>
+      <c r="R61" s="3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3505900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3398200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3003800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3006300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3078600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2640700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2220100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2195900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2040900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1590800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1621000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1626700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1624200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1122800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1154000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,10 +3542,16 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>110500</v>
+      </c>
+      <c r="F72" s="3">
         <v>100100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>89200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>78600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>72000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>65900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>61400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>57100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>53700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>51600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>47300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>45300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>44500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>555900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>543700</v>
+      </c>
+      <c r="F76" s="3">
         <v>478100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>466300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>454300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>363300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>288800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>285800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>258500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>222500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>167000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>162900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>159000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>154500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F81" s="3">
         <v>12300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>12000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>7600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>6900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>5200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>4700</v>
       </c>
       <c r="M81" s="3">
         <v>2400</v>
       </c>
       <c r="N81" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>-600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1300</v>
       </c>
       <c r="N83" s="3">
         <v>1100</v>
       </c>
       <c r="O83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>-200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F89" s="3">
         <v>13500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>9500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>7700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>8500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>11100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>14600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>5500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>8900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>6900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-12800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-12700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-20500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>49300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-32500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-17800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-7800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-34100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-61900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-45400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-25200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-400</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-300</v>
       </c>
       <c r="N96" s="3">
         <v>-300</v>
       </c>
       <c r="O96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-6700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-79400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>102300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-21100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>23400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-38900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>81100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>27200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-8100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>128600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>11900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-6000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-82600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>89500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>36700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-42100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>70600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-55900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>86400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-8000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>FBMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E8" s="3">
         <v>41600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>37200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>37600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>33300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>30600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>25600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,31 +1078,34 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>-900</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E17" s="3">
         <v>9000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1900</v>
       </c>
       <c r="O17" s="3">
         <v>1900</v>
       </c>
       <c r="P17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1300</v>
       </c>
       <c r="R17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>32600</v>
+        <v>38200</v>
       </c>
       <c r="E18" s="3">
         <v>32600</v>
       </c>
       <c r="F18" s="3">
+        <v>32600</v>
+      </c>
+      <c r="G18" s="3">
         <v>29400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>30000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>24700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-22600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-17300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-13700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-14200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-16400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-15900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E21" s="3">
         <v>11300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>16800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>16400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E23" s="3">
         <v>10000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>15800</v>
       </c>
       <c r="G23" s="3">
         <v>15800</v>
       </c>
       <c r="H23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I23" s="3">
         <v>9700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2000</v>
       </c>
       <c r="I24" s="3">
         <v>2000</v>
       </c>
       <c r="J24" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="K24" s="3">
         <v>1400</v>
       </c>
       <c r="L24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E26" s="3">
         <v>8300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>5200</v>
       </c>
       <c r="K26" s="3">
         <v>5200</v>
       </c>
       <c r="L26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M26" s="3">
         <v>4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E27" s="3">
         <v>8300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>5200</v>
       </c>
       <c r="K27" s="3">
         <v>5200</v>
       </c>
       <c r="L27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M27" s="3">
         <v>4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1727,12 +1788,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2100</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E32" s="3">
         <v>22600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>17300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>13700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>14200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>16400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>15900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E33" s="3">
         <v>8300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>5200</v>
       </c>
       <c r="K33" s="3">
         <v>5200</v>
       </c>
       <c r="L33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M33" s="3">
         <v>4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E35" s="3">
         <v>8300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>5200</v>
       </c>
       <c r="K35" s="3">
         <v>5200</v>
       </c>
       <c r="L35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M35" s="3">
         <v>4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,108 +2226,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>119900</v>
+      </c>
+      <c r="E41" s="3">
         <v>107300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>89700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>91800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>77000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>91500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>71400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>74600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>97600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>93600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>63700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>58200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>85100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>31700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>419200</v>
+      </c>
+      <c r="E42" s="3">
         <v>179500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>79100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>68200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>89000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>157000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>87800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>47700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>68900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>48900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>29600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>34400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>63400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>30400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E48" s="3">
         <v>108000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>105000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>96700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>97100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>94600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>74800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>62300</v>
       </c>
       <c r="K48" s="3">
         <v>62300</v>
       </c>
       <c r="L48" s="3">
+        <v>62300</v>
+      </c>
+      <c r="M48" s="3">
         <v>57400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>46400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>46200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>44800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>45400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>34600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2552,46 +2663,49 @@
         <v>158600</v>
       </c>
       <c r="F49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="G49" s="3">
         <v>118600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>119200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>119900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>89800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>54400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>54900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>47700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20400</v>
-      </c>
-      <c r="O49" s="3">
-        <v>20200</v>
       </c>
       <c r="P49" s="3">
         <v>20200</v>
       </c>
       <c r="Q49" s="3">
-        <v>13800</v>
+        <v>20200</v>
       </c>
       <c r="R49" s="3">
         <v>13800</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5084900</v>
+      </c>
+      <c r="E54" s="3">
         <v>4061800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3941900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3481900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3472600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3533000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3004000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2508900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2481700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2299400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1813200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1788000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1789600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1783200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1277400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1266600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,43 +3010,44 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,29 +3114,32 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>5800</v>
       </c>
       <c r="E59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F59" s="3">
         <v>6500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>4400</v>
       </c>
       <c r="G59" s="3">
         <v>4400</v>
       </c>
       <c r="H59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3012,8 +3149,8 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3089,10 +3232,10 @@
         <v>83100</v>
       </c>
       <c r="E61" s="3">
+        <v>83100</v>
+      </c>
+      <c r="F61" s="3">
         <v>80700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>80600</v>
       </c>
       <c r="G61" s="3">
         <v>80600</v>
@@ -3101,16 +3244,16 @@
         <v>80600</v>
       </c>
       <c r="I61" s="3">
+        <v>80600</v>
+      </c>
+      <c r="J61" s="3">
         <v>80500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>75100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>75200</v>
-      </c>
-      <c r="L61" s="3">
-        <v>10300</v>
       </c>
       <c r="M61" s="3">
         <v>10300</v>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>10300</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4457100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3505900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3398200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3003800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3006300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3078600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2640700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2220100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2195900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2040900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1590800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1621000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1626700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1624200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1122800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1154000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,10 +3716,13 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>131700</v>
+      </c>
+      <c r="E72" s="3">
         <v>116900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>110500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>100100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>89200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>78600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>72000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>65900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>61400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>57100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>51600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>47300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>45300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>44500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>627800</v>
+      </c>
+      <c r="E76" s="3">
         <v>555900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>543700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>478100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>466300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>454300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>363300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>288800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>285800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>258500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>222500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>167000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>162900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>159000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>154500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E81" s="3">
         <v>8300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>5200</v>
       </c>
       <c r="K81" s="3">
         <v>5200</v>
       </c>
       <c r="L81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M81" s="3">
         <v>4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>-600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>-200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14000</v>
+        <v>13100</v>
       </c>
       <c r="E89" s="3">
         <v>14000</v>
       </c>
       <c r="F89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G89" s="3">
         <v>13500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-211700</v>
+      </c>
+      <c r="E94" s="3">
         <v>3100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>49300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-32500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-61900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-45400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,43 +4848,44 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-1300</v>
       </c>
       <c r="G96" s="3">
         <v>-1300</v>
       </c>
       <c r="H96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-600</v>
       </c>
       <c r="K96" s="3">
         <v>-600</v>
       </c>
       <c r="L96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M96" s="3">
         <v>-500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-400</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-300</v>
       </c>
       <c r="O96" s="3">
         <v>-300</v>
@@ -4660,13 +4894,16 @@
         <v>-300</v>
       </c>
       <c r="Q96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E100" s="3">
         <v>100800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-79400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>102300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-21100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>23400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-38900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>81100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>27200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>128600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>11900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>252400</v>
+      </c>
+      <c r="E102" s="3">
         <v>117900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-82600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>89500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>36700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-42100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>70600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-55900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>86400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>FBMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E8" s="3">
         <v>45800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>41600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>37200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>30600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,11 +1113,11 @@
         <v>-1100</v>
       </c>
       <c r="E15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F15" s="3">
         <v>-900</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1107,8 +1130,8 @@
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E17" s="3">
         <v>7600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1900</v>
       </c>
       <c r="P17" s="3">
         <v>1900</v>
       </c>
       <c r="Q17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R17" s="3">
         <v>1600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1300</v>
       </c>
       <c r="S17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E18" s="3">
         <v>38200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>32600</v>
       </c>
       <c r="F18" s="3">
         <v>32600</v>
       </c>
       <c r="G18" s="3">
+        <v>32600</v>
+      </c>
+      <c r="H18" s="3">
         <v>29400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>24700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-19000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-22600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-17300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-13700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-14200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-16400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-15900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E21" s="3">
         <v>21800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>16800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>16400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E23" s="3">
         <v>19200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>15800</v>
       </c>
       <c r="H23" s="3">
         <v>15800</v>
       </c>
       <c r="I23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J23" s="3">
         <v>9700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2000</v>
       </c>
       <c r="J24" s="3">
         <v>2000</v>
       </c>
       <c r="K24" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="L24" s="3">
         <v>1400</v>
       </c>
       <c r="M24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E26" s="3">
         <v>16900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>5200</v>
       </c>
       <c r="L26" s="3">
         <v>5200</v>
       </c>
       <c r="M26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N26" s="3">
         <v>4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E27" s="3">
         <v>16900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>5200</v>
       </c>
       <c r="L27" s="3">
         <v>5200</v>
       </c>
       <c r="M27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N27" s="3">
         <v>4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1791,12 +1852,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2100</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E32" s="3">
         <v>19000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>22600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>17300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>13700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>14200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>16400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>15900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E33" s="3">
         <v>16900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>5200</v>
       </c>
       <c r="L33" s="3">
         <v>5200</v>
       </c>
       <c r="M33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N33" s="3">
         <v>4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E35" s="3">
         <v>16900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>5200</v>
       </c>
       <c r="L35" s="3">
         <v>5200</v>
       </c>
       <c r="M35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N35" s="3">
         <v>4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2313,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>131900</v>
+      </c>
+      <c r="E41" s="3">
         <v>119900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>107300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>89700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>91800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>77000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>91500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>71400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>74600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>97600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>93600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>63700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>58200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>85100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>31700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>471800</v>
+      </c>
+      <c r="E42" s="3">
         <v>419200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>179500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>79100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>68200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>89000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>157000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>87800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>47700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>68900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>48900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>29600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>34400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>63400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>30400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2703,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>124900</v>
+      </c>
+      <c r="E48" s="3">
         <v>125100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>108000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>105000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>96700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>97100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>94600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>74800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>62300</v>
       </c>
       <c r="L48" s="3">
         <v>62300</v>
       </c>
       <c r="M48" s="3">
+        <v>62300</v>
+      </c>
+      <c r="N48" s="3">
         <v>57400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>46400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>46200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>44800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>45400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2666,46 +2777,49 @@
         <v>158600</v>
       </c>
       <c r="G49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="H49" s="3">
         <v>118600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>119200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>119900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>89800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>54400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>54900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>47700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20400</v>
-      </c>
-      <c r="P49" s="3">
-        <v>20200</v>
       </c>
       <c r="Q49" s="3">
         <v>20200</v>
       </c>
       <c r="R49" s="3">
-        <v>13800</v>
+        <v>20200</v>
       </c>
       <c r="S49" s="3">
         <v>13800</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5164200</v>
+      </c>
+      <c r="E54" s="3">
         <v>5084900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4061800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3941900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3481900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3472600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3533000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3004000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2508900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2481700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2299400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1813200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1788000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1789600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1783200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1277400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1266600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,46 +3141,47 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,32 +3251,35 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
         <v>5800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>4400</v>
       </c>
       <c r="H59" s="3">
         <v>4400</v>
       </c>
       <c r="I59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3152,8 +3289,8 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,22 +3363,25 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>83100</v>
+        <v>147000</v>
       </c>
       <c r="E61" s="3">
         <v>83100</v>
       </c>
       <c r="F61" s="3">
+        <v>83100</v>
+      </c>
+      <c r="G61" s="3">
         <v>80700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>80600</v>
       </c>
       <c r="H61" s="3">
         <v>80600</v>
@@ -3247,16 +3390,16 @@
         <v>80600</v>
       </c>
       <c r="J61" s="3">
+        <v>80600</v>
+      </c>
+      <c r="K61" s="3">
         <v>80500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>75100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>75200</v>
-      </c>
-      <c r="M61" s="3">
-        <v>10300</v>
       </c>
       <c r="N61" s="3">
         <v>10300</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>10300</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4525800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4457100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3505900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3398200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3003800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3006300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3078600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2640700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2220100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2195900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2040900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1590800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1621000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1626700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1624200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1122800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1154000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,10 +3887,13 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E72" s="3">
         <v>131700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>116900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>110500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>100100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>89200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>78600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>72000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>65900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>61400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>57100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>53700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>51600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>47300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>45300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>44500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>638400</v>
+      </c>
+      <c r="E76" s="3">
         <v>627800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>555900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>543700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>478100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>466300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>454300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>363300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>288800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>285800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>258500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>222500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>167000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>162900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>159000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>154500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E81" s="3">
         <v>16900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>5200</v>
       </c>
       <c r="L81" s="3">
         <v>5200</v>
       </c>
       <c r="M81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N81" s="3">
         <v>4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E83" s="3">
         <v>2600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>-600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>-200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E89" s="3">
         <v>13100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>14000</v>
       </c>
       <c r="F89" s="3">
         <v>14000</v>
       </c>
       <c r="G89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H89" s="3">
         <v>13500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-211700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>49300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-32500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-61900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-45400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,37 +5092,37 @@
         <v>-2100</v>
       </c>
       <c r="E96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-1300</v>
       </c>
       <c r="H96" s="3">
         <v>-1300</v>
       </c>
       <c r="I96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-700</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-600</v>
       </c>
       <c r="L96" s="3">
         <v>-600</v>
       </c>
       <c r="M96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N96" s="3">
         <v>-500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-400</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-300</v>
       </c>
       <c r="P96" s="3">
         <v>-300</v>
@@ -4897,13 +5131,16 @@
         <v>-300</v>
       </c>
       <c r="R96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E100" s="3">
         <v>451000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-79400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>102300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-21100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>23400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-38900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>81100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>27200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>128600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>11900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E102" s="3">
         <v>252400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>117900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-82600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>89500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>36700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-42100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>70600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-55900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>86400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>FBMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E8" s="3">
         <v>46300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>45800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>41600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>40400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>33300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,23 +1123,26 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>-1100</v>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E15" s="3">
         <v>-1100</v>
       </c>
       <c r="F15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G15" s="3">
         <v>-900</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1133,8 +1155,8 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E17" s="3">
         <v>7500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1900</v>
       </c>
       <c r="Q17" s="3">
         <v>1900</v>
       </c>
       <c r="R17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S17" s="3">
         <v>1600</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1300</v>
       </c>
       <c r="T17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E18" s="3">
         <v>38800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>38200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>32600</v>
       </c>
       <c r="G18" s="3">
         <v>32600</v>
       </c>
       <c r="H18" s="3">
+        <v>32600</v>
+      </c>
+      <c r="I18" s="3">
         <v>29400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>30000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-23900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-19000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-22600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-17300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-13700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-14200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-16400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-11300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E21" s="3">
         <v>17400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>21800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>16800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E23" s="3">
         <v>14900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>15800</v>
       </c>
       <c r="I23" s="3">
         <v>15800</v>
       </c>
       <c r="J23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K23" s="3">
         <v>9700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2000</v>
       </c>
       <c r="K24" s="3">
         <v>2000</v>
       </c>
       <c r="L24" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M24" s="3">
         <v>1400</v>
       </c>
       <c r="N24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E26" s="3">
         <v>11900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>5200</v>
       </c>
       <c r="M26" s="3">
         <v>5200</v>
       </c>
       <c r="N26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="O26" s="3">
         <v>4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E27" s="3">
         <v>11900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>5200</v>
       </c>
       <c r="M27" s="3">
         <v>5200</v>
       </c>
       <c r="N27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="O27" s="3">
         <v>4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,11 +1903,11 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1855,12 +1915,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2100</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E32" s="3">
         <v>23900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>19000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>22600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>17300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>13700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>14200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>16400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>11300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E33" s="3">
         <v>11900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>5200</v>
       </c>
       <c r="M33" s="3">
         <v>5200</v>
       </c>
       <c r="N33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="O33" s="3">
         <v>4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E35" s="3">
         <v>11900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>5200</v>
       </c>
       <c r="M35" s="3">
         <v>5200</v>
       </c>
       <c r="N35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="O35" s="3">
         <v>4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2399,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E41" s="3">
         <v>131900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>119900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>107300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>89700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>91800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>77000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>91500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>71400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>74600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>97600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>93600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>63700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>58200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>85100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>31700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>424900</v>
+      </c>
+      <c r="E42" s="3">
         <v>471800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>419200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>179500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>79100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>68200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>89000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>157000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>87800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>47700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>68900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>48900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>29600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>34400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>63400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>30400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,69 +2810,75 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E48" s="3">
         <v>124900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>125100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>108000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>105000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>96700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>97100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>94600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>74800</v>
-      </c>
-      <c r="L48" s="3">
-        <v>62300</v>
       </c>
       <c r="M48" s="3">
         <v>62300</v>
       </c>
       <c r="N48" s="3">
+        <v>62300</v>
+      </c>
+      <c r="O48" s="3">
         <v>57400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>46400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>46200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>44800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>45400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>34600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>158600</v>
+        <v>156900</v>
       </c>
       <c r="E49" s="3">
         <v>158600</v>
@@ -2780,46 +2890,49 @@
         <v>158600</v>
       </c>
       <c r="H49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="I49" s="3">
         <v>118600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>119200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>119900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>89800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>54400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>54900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>47700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20400</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>20200</v>
       </c>
       <c r="R49" s="3">
         <v>20200</v>
       </c>
       <c r="S49" s="3">
-        <v>13800</v>
+        <v>20200</v>
       </c>
       <c r="T49" s="3">
         <v>13800</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5152800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5164200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5084900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4061800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3941900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3481900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3472600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3533000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3004000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2508900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2481700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2299400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1813200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1788000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1789600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1783200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1277400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1266600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,49 +3271,50 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,35 +3387,38 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>4400</v>
       </c>
       <c r="I59" s="3">
         <v>4400</v>
       </c>
       <c r="J59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3292,8 +3428,8 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3310,8 +3446,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,25 +3505,28 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>146900</v>
+      </c>
+      <c r="E61" s="3">
         <v>147000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>83100</v>
       </c>
       <c r="F61" s="3">
         <v>83100</v>
       </c>
       <c r="G61" s="3">
+        <v>83100</v>
+      </c>
+      <c r="H61" s="3">
         <v>80700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>80600</v>
       </c>
       <c r="I61" s="3">
         <v>80600</v>
@@ -3393,16 +3535,16 @@
         <v>80600</v>
       </c>
       <c r="K61" s="3">
+        <v>80600</v>
+      </c>
+      <c r="L61" s="3">
         <v>80500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>75100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>75200</v>
-      </c>
-      <c r="N61" s="3">
-        <v>10300</v>
       </c>
       <c r="O61" s="3">
         <v>10300</v>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>10300</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4507900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4525800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4457100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3505900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3398200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3003800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3006300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3078600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2640700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2220100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2195900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2040900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1590800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1621000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1626700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1624200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1122800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1154000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,10 +4057,13 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E72" s="3">
         <v>141500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>131700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>116900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>110500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>100100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>89200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>78600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>72000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>65900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>61400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>57100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>53700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>51600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>47300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>45300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>44500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>644800</v>
+      </c>
+      <c r="E76" s="3">
         <v>638400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>627800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>555900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>543700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>478100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>466300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>454300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>363300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>288800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>285800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>258500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>222500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>167000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>162900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>159000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>154500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E81" s="3">
         <v>11900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>5200</v>
       </c>
       <c r="M81" s="3">
         <v>5200</v>
       </c>
       <c r="N81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="O81" s="3">
         <v>4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>-600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>-200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E89" s="3">
         <v>9100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>14000</v>
       </c>
       <c r="G89" s="3">
         <v>14000</v>
       </c>
       <c r="H89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I89" s="3">
         <v>13500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-211700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>49300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-32500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-34100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-61900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-45400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,49 +5315,50 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2100</v>
+        <v>-2500</v>
       </c>
       <c r="E96" s="3">
         <v>-2100</v>
       </c>
       <c r="F96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1300</v>
       </c>
       <c r="I96" s="3">
         <v>-1300</v>
       </c>
       <c r="J96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-700</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-600</v>
       </c>
       <c r="M96" s="3">
         <v>-600</v>
       </c>
       <c r="N96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O96" s="3">
         <v>-500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-400</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-300</v>
       </c>
       <c r="Q96" s="3">
         <v>-300</v>
@@ -5134,13 +5367,16 @@
         <v>-300</v>
       </c>
       <c r="S96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E100" s="3">
         <v>73800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>451000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-79400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>102300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-21100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>23400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-38900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>81100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>27200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>128600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>11900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E102" s="3">
         <v>64600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>252400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>117900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-82600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>89500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>36700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-42100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>70600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-55900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>86400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>FBMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E8" s="3">
         <v>45600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>46300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>41600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>40400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,26 +1146,29 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
-        <v>-1100</v>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F15" s="3">
         <v>-1100</v>
       </c>
       <c r="G15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H15" s="3">
         <v>-900</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1158,8 +1181,8 @@
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1900</v>
       </c>
       <c r="R17" s="3">
         <v>1900</v>
       </c>
       <c r="S17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T17" s="3">
         <v>1600</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1300</v>
       </c>
       <c r="U17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E18" s="3">
         <v>39300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>38800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>38200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>32600</v>
       </c>
       <c r="H18" s="3">
         <v>32600</v>
       </c>
       <c r="I18" s="3">
+        <v>32600</v>
+      </c>
+      <c r="J18" s="3">
         <v>29400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>30000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>15100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-20400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-23900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-19000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-22600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-17300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-13700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-16400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-11300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E21" s="3">
         <v>24900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>21800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E23" s="3">
         <v>19000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>15800</v>
       </c>
       <c r="J23" s="3">
         <v>15800</v>
       </c>
       <c r="K23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="L23" s="3">
         <v>9700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E24" s="3">
         <v>3600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2000</v>
       </c>
       <c r="L24" s="3">
         <v>2000</v>
       </c>
       <c r="M24" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="N24" s="3">
         <v>1400</v>
       </c>
       <c r="O24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E26" s="3">
         <v>15300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>5200</v>
       </c>
       <c r="N26" s="3">
         <v>5200</v>
       </c>
       <c r="O26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P26" s="3">
         <v>4000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E27" s="3">
         <v>15300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6900</v>
-      </c>
-      <c r="M27" s="3">
-        <v>5200</v>
       </c>
       <c r="N27" s="3">
         <v>5200</v>
       </c>
       <c r="O27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P27" s="3">
         <v>4000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,40 +1935,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1918,12 +1979,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E32" s="3">
         <v>20400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>23900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>19000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>22600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>17300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>13700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>16400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>11300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E33" s="3">
         <v>15300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6900</v>
-      </c>
-      <c r="M33" s="3">
-        <v>5200</v>
       </c>
       <c r="N33" s="3">
         <v>5200</v>
       </c>
       <c r="O33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P33" s="3">
         <v>4000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E35" s="3">
         <v>15300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6900</v>
-      </c>
-      <c r="M35" s="3">
-        <v>5200</v>
       </c>
       <c r="N35" s="3">
         <v>5200</v>
       </c>
       <c r="O35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P35" s="3">
         <v>4000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,126 +2486,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E41" s="3">
         <v>137700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>131900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>119900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>107300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>89700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>91800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>77000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>91500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>71400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>74600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>97600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>93600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>43000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>63700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>58200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>85100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>31700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>695700</v>
+      </c>
+      <c r="E42" s="3">
         <v>424900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>471800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>419200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>179500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>79100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>68200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>89000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>157000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>87800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>47700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>68900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>48900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>29600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>34400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>63400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>30400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,67 +2918,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E48" s="3">
         <v>123500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>124900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>125100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>108000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>105000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>96700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>97100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>94600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>74800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>62300</v>
       </c>
       <c r="N48" s="3">
         <v>62300</v>
       </c>
       <c r="O48" s="3">
+        <v>62300</v>
+      </c>
+      <c r="P48" s="3">
         <v>57400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>46400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>46200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>44800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>45400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>34600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2881,7 +2992,7 @@
         <v>156900</v>
       </c>
       <c r="E49" s="3">
-        <v>158600</v>
+        <v>156900</v>
       </c>
       <c r="F49" s="3">
         <v>158600</v>
@@ -2893,46 +3004,49 @@
         <v>158600</v>
       </c>
       <c r="I49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="J49" s="3">
         <v>118600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>119200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>119900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>89800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>54400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>54900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>47700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20400</v>
-      </c>
-      <c r="R49" s="3">
-        <v>20200</v>
       </c>
       <c r="S49" s="3">
         <v>20200</v>
       </c>
       <c r="T49" s="3">
-        <v>13800</v>
+        <v>20200</v>
       </c>
       <c r="U49" s="3">
         <v>13800</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5442800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5152800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5164200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5084900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4061800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3941900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3481900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3472600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3533000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3004000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2508900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2481700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2299400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1813200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1788000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1789600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1783200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1277400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1266600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,52 +3402,53 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,38 +3524,41 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E59" s="3">
         <v>6000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>4400</v>
       </c>
       <c r="J59" s="3">
         <v>4400</v>
       </c>
       <c r="K59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3431,8 +3568,8 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,28 +3648,31 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>146800</v>
+      </c>
+      <c r="E61" s="3">
         <v>146900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>147000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>83100</v>
       </c>
       <c r="G61" s="3">
         <v>83100</v>
       </c>
       <c r="H61" s="3">
+        <v>83100</v>
+      </c>
+      <c r="I61" s="3">
         <v>80700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>80600</v>
       </c>
       <c r="J61" s="3">
         <v>80600</v>
@@ -3538,16 +3681,16 @@
         <v>80600</v>
       </c>
       <c r="L61" s="3">
+        <v>80600</v>
+      </c>
+      <c r="M61" s="3">
         <v>80500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>75100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>75200</v>
-      </c>
-      <c r="O61" s="3">
-        <v>10300</v>
       </c>
       <c r="P61" s="3">
         <v>10300</v>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>10300</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4798800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4507900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4525800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4457100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3505900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3398200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3003800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3006300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3078600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2640700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2220100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2195900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2040900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1590800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1621000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1626700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1624200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1122800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1154000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,10 +4228,13 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>168200</v>
+      </c>
+      <c r="E72" s="3">
         <v>154200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>141500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>131700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>116900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>110500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>100100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>89200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>78600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>72000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>65900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>61400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>57100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>53700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>51600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>47300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>45300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>44500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>643900</v>
+      </c>
+      <c r="E76" s="3">
         <v>644800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>638400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>627800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>555900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>543700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>478100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>466300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>454300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>363300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>288800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>285800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>258500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>222500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>167000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>162900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>159000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>154500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E81" s="3">
         <v>15300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6900</v>
-      </c>
-      <c r="M81" s="3">
-        <v>5200</v>
       </c>
       <c r="N81" s="3">
         <v>5200</v>
       </c>
       <c r="O81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P81" s="3">
         <v>4000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E83" s="3">
         <v>6000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>-600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>-200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E89" s="3">
         <v>15000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9100</v>
       </c>
-      <c r="F89" s="3">
-        <v>13100</v>
-      </c>
       <c r="G89" s="3">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="H89" s="3">
         <v>14000</v>
       </c>
       <c r="I89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J89" s="3">
         <v>13500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-211700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>49300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-17800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-34100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-61900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-45400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,52 +5549,53 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2500</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-2100</v>
       </c>
       <c r="F96" s="3">
         <v>-2100</v>
       </c>
       <c r="G96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1300</v>
       </c>
       <c r="J96" s="3">
         <v>-1300</v>
       </c>
       <c r="K96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-700</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-600</v>
       </c>
       <c r="N96" s="3">
         <v>-600</v>
       </c>
       <c r="O96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P96" s="3">
         <v>-500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-300</v>
       </c>
       <c r="R96" s="3">
         <v>-300</v>
@@ -5370,13 +5604,16 @@
         <v>-300</v>
       </c>
       <c r="T96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>286500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-23900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>73800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>451000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-79400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>102300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-21100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>23400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-38900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>81100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>27200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>128600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>11900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>250700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-41200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>64600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>252400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>117900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-82600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>89500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>36700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-42100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>70600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-55900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>86400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>FBMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E8" s="3">
         <v>45200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>45600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>46300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>41600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>40400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>30600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>25000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,18 +1183,18 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="3">
-        <v>-1100</v>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G15" s="3">
         <v>-1100</v>
       </c>
       <c r="H15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I15" s="3">
         <v>-900</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1184,8 +1207,8 @@
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E17" s="3">
         <v>6000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1900</v>
       </c>
       <c r="S17" s="3">
         <v>1900</v>
       </c>
       <c r="T17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U17" s="3">
         <v>1600</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1300</v>
       </c>
       <c r="V17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E18" s="3">
         <v>39200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>39300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>38800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>38200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>32600</v>
       </c>
       <c r="I18" s="3">
         <v>32600</v>
       </c>
       <c r="J18" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K18" s="3">
         <v>29400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>30000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-17800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-20400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-23900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-19000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-22600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-17300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-13700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-16400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-12800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E21" s="3">
         <v>24800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>24900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>21800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E23" s="3">
         <v>21400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>15800</v>
       </c>
       <c r="K23" s="3">
         <v>15800</v>
       </c>
       <c r="L23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="M23" s="3">
         <v>9700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E24" s="3">
         <v>4800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2000</v>
       </c>
       <c r="M24" s="3">
         <v>2000</v>
       </c>
       <c r="N24" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="O24" s="3">
         <v>1400</v>
       </c>
       <c r="P24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E26" s="3">
         <v>16600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>5200</v>
       </c>
       <c r="O26" s="3">
         <v>5200</v>
       </c>
       <c r="P26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E27" s="3">
         <v>16600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6900</v>
-      </c>
-      <c r="N27" s="3">
-        <v>5200</v>
       </c>
       <c r="O27" s="3">
         <v>5200</v>
       </c>
       <c r="P27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,17 +2025,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -1982,12 +2043,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-2100</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E32" s="3">
         <v>17800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>20400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>23900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>19000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>22600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>17300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>13700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>16400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E33" s="3">
         <v>16600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>11900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6900</v>
-      </c>
-      <c r="N33" s="3">
-        <v>5200</v>
       </c>
       <c r="O33" s="3">
         <v>5200</v>
       </c>
       <c r="P33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E35" s="3">
         <v>16600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>11900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6900</v>
-      </c>
-      <c r="N35" s="3">
-        <v>5200</v>
       </c>
       <c r="O35" s="3">
         <v>5200</v>
       </c>
       <c r="P35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,132 +2573,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E41" s="3">
         <v>117500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>137700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>131900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>119900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>107300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>89700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>91800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>77000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>91500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>71400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>74600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>97600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>93600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>63700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>58200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>85100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>31700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>630200</v>
+      </c>
+      <c r="E42" s="3">
         <v>695700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>424900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>471800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>419200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>179500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>79100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>68200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>89000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>157000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>87800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>47700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>22900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>68900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>48900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>29600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>34400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>63400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>30400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,70 +3026,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E48" s="3">
         <v>121900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>123500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>124900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>125100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>108000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>105000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>96700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>97100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>94600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>74800</v>
-      </c>
-      <c r="N48" s="3">
-        <v>62300</v>
       </c>
       <c r="O48" s="3">
         <v>62300</v>
       </c>
       <c r="P48" s="3">
+        <v>62300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>57400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>46400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>46200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>44800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>45400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>34600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2995,7 +3106,7 @@
         <v>156900</v>
       </c>
       <c r="F49" s="3">
-        <v>158600</v>
+        <v>156900</v>
       </c>
       <c r="G49" s="3">
         <v>158600</v>
@@ -3007,46 +3118,49 @@
         <v>158600</v>
       </c>
       <c r="J49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="K49" s="3">
         <v>118600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>119200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>119900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>89800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>54400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>54900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>47700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20400</v>
-      </c>
-      <c r="S49" s="3">
-        <v>20200</v>
       </c>
       <c r="T49" s="3">
         <v>20200</v>
       </c>
       <c r="U49" s="3">
-        <v>13800</v>
+        <v>20200</v>
       </c>
       <c r="V49" s="3">
         <v>13800</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5509700</v>
+      </c>
+      <c r="E54" s="3">
         <v>5442800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5152800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5164200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5084900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4061800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3941900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3481900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3472600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3533000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3004000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2508900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2481700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2299400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1813200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1788000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1789600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1783200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1277400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1266600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,55 +3533,56 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,41 +3661,44 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E59" s="3">
         <v>5600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>4400</v>
       </c>
       <c r="K59" s="3">
         <v>4400</v>
       </c>
       <c r="L59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3571,8 +3708,8 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,22 +3803,22 @@
         <v>146800</v>
       </c>
       <c r="E61" s="3">
+        <v>146800</v>
+      </c>
+      <c r="F61" s="3">
         <v>146900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>147000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>83100</v>
       </c>
       <c r="H61" s="3">
         <v>83100</v>
       </c>
       <c r="I61" s="3">
+        <v>83100</v>
+      </c>
+      <c r="J61" s="3">
         <v>80700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>80600</v>
       </c>
       <c r="K61" s="3">
         <v>80600</v>
@@ -3684,16 +3827,16 @@
         <v>80600</v>
       </c>
       <c r="M61" s="3">
+        <v>80600</v>
+      </c>
+      <c r="N61" s="3">
         <v>80500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>75100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>75200</v>
-      </c>
-      <c r="P61" s="3">
-        <v>10300</v>
       </c>
       <c r="Q61" s="3">
         <v>10300</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>10300</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4849700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4798800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4507900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4525800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4457100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3505900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3398200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3003800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3006300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3078600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2640700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2220100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2195900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2040900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1590800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1621000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1626700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1624200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1122800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1154000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,10 +4399,13 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>180800</v>
+      </c>
+      <c r="E72" s="3">
         <v>168200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>154200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>141500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>131700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>116900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>110500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>100100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>89200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>78600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>72000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>65900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>61400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>57100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>53700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>51600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>47300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>45300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>44500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>660100</v>
+      </c>
+      <c r="E76" s="3">
         <v>643900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>644800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>638400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>627800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>555900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>543700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>478100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>466300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>454300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>363300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>288800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>285800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>258500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>222500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>167000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>162900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>159000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>154500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E81" s="3">
         <v>16600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>11900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6900</v>
-      </c>
-      <c r="N81" s="3">
-        <v>5200</v>
       </c>
       <c r="O81" s="3">
         <v>5200</v>
       </c>
       <c r="P81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E83" s="3">
         <v>3300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>-600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>-200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E89" s="3">
         <v>32200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15000</v>
       </c>
-      <c r="F89" s="3">
-        <v>9100</v>
-      </c>
       <c r="G89" s="3">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="H89" s="3">
-        <v>14000</v>
+        <v>13100</v>
       </c>
       <c r="I89" s="3">
         <v>14000</v>
       </c>
       <c r="J89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K89" s="3">
         <v>13500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-122800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-68000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-211700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>49300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-32500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-17800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-34100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-61900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-45400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,55 +5783,56 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2500</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-2100</v>
       </c>
       <c r="G96" s="3">
         <v>-2100</v>
       </c>
       <c r="H96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1300</v>
       </c>
       <c r="K96" s="3">
         <v>-1300</v>
       </c>
       <c r="L96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-700</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-600</v>
       </c>
       <c r="O96" s="3">
         <v>-600</v>
       </c>
       <c r="P96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-400</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-300</v>
       </c>
       <c r="S96" s="3">
         <v>-300</v>
@@ -5607,13 +5841,16 @@
         <v>-300</v>
       </c>
       <c r="U96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E100" s="3">
         <v>286500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>73800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>451000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>11500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-79400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>102300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-21100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>23400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-38900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>81100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>27200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>128600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>11900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="E102" s="3">
         <v>250700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-41200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>64600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>252400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>117900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-82600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>89500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>36700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-42100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>70600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-55900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>86400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-8000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>FBMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E8" s="3">
         <v>43200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>45200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>46300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>41600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>40400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>30600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>25600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>25000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>15800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,32 +1192,35 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="D15" s="3">
         <v>-1100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H15" s="3">
         <v>-1100</v>
       </c>
       <c r="I15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J15" s="3">
         <v>-900</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1210,8 +1233,8 @@
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
         <v>5200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1900</v>
       </c>
       <c r="T17" s="3">
         <v>1900</v>
       </c>
       <c r="U17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V17" s="3">
         <v>1600</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1300</v>
       </c>
       <c r="W17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E18" s="3">
         <v>38000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>39200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>39300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>38800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>38200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>32600</v>
       </c>
       <c r="J18" s="3">
         <v>32600</v>
       </c>
       <c r="K18" s="3">
+        <v>32600</v>
+      </c>
+      <c r="L18" s="3">
         <v>29400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>30000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-18600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-17800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-20400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-23900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-19000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-22600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-17300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-16400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-11200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-12800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E21" s="3">
         <v>22800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>24800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>24900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E23" s="3">
         <v>19400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>15800</v>
       </c>
       <c r="L23" s="3">
         <v>15800</v>
       </c>
       <c r="M23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="N23" s="3">
         <v>9700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>3800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3800</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2000</v>
       </c>
       <c r="N24" s="3">
         <v>2000</v>
       </c>
       <c r="O24" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="P24" s="3">
         <v>1400</v>
       </c>
       <c r="Q24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E26" s="3">
         <v>15600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6900</v>
-      </c>
-      <c r="O26" s="3">
-        <v>5200</v>
       </c>
       <c r="P26" s="3">
         <v>5200</v>
       </c>
       <c r="Q26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R26" s="3">
         <v>4000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E27" s="3">
         <v>15600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6900</v>
-      </c>
-      <c r="O27" s="3">
-        <v>5200</v>
       </c>
       <c r="P27" s="3">
         <v>5200</v>
       </c>
       <c r="Q27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R27" s="3">
         <v>4000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,17 +2089,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2046,12 +2107,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2100</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E32" s="3">
         <v>18600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>17800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>20400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>23900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>19000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>22600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>17300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>16400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>14000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>11200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E33" s="3">
         <v>15600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>11900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6900</v>
-      </c>
-      <c r="O33" s="3">
-        <v>5200</v>
       </c>
       <c r="P33" s="3">
         <v>5200</v>
       </c>
       <c r="Q33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R33" s="3">
         <v>4000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E35" s="3">
         <v>15600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>11900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6900</v>
-      </c>
-      <c r="O35" s="3">
-        <v>5200</v>
       </c>
       <c r="P35" s="3">
         <v>5200</v>
       </c>
       <c r="Q35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R35" s="3">
         <v>4000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,138 +2660,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>113200</v>
+      </c>
+      <c r="E41" s="3">
         <v>132300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>117500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>137700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>131900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>119900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>107300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>89700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>91800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>77000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>91500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>71400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>74600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>97600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>93600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>63700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>58200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>85100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>31700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>544100</v>
+      </c>
+      <c r="E42" s="3">
         <v>630200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>695700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>424900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>471800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>419200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>179500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>79100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>68200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>89000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>157000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>87800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>47700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>22900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>68900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>48900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>29600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>34400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>63400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>30400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,73 +3134,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>123600</v>
+      </c>
+      <c r="E48" s="3">
         <v>120700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>121900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>123500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>124900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>125100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>108000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>105000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>96700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>97100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>94600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>74800</v>
-      </c>
-      <c r="O48" s="3">
-        <v>62300</v>
       </c>
       <c r="P48" s="3">
         <v>62300</v>
       </c>
       <c r="Q48" s="3">
+        <v>62300</v>
+      </c>
+      <c r="R48" s="3">
         <v>57400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>46400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>46200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>44800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>45400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>34600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3109,7 +3220,7 @@
         <v>156900</v>
       </c>
       <c r="G49" s="3">
-        <v>158600</v>
+        <v>156900</v>
       </c>
       <c r="H49" s="3">
         <v>158600</v>
@@ -3121,46 +3232,49 @@
         <v>158600</v>
       </c>
       <c r="K49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="L49" s="3">
         <v>118600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>119200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>119900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>89800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>54400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>54900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>47700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20400</v>
-      </c>
-      <c r="T49" s="3">
-        <v>20200</v>
       </c>
       <c r="U49" s="3">
         <v>20200</v>
       </c>
       <c r="V49" s="3">
-        <v>13800</v>
+        <v>20200</v>
       </c>
       <c r="W49" s="3">
         <v>13800</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5511900</v>
+      </c>
+      <c r="E54" s="3">
         <v>5509700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5442800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5152800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5164200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5084900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4061800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3941900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3481900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3472600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3533000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3004000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2508900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2481700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2299400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1813200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1788000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1789600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1783200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1277400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1266600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,58 +3664,59 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,44 +3798,47 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
         <v>5200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>4400</v>
       </c>
       <c r="L59" s="3">
         <v>4400</v>
       </c>
       <c r="M59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N59" s="3">
         <v>3600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3711,8 +3848,8 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3806,22 +3949,22 @@
         <v>146800</v>
       </c>
       <c r="F61" s="3">
+        <v>146800</v>
+      </c>
+      <c r="G61" s="3">
         <v>146900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>147000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>83100</v>
       </c>
       <c r="I61" s="3">
         <v>83100</v>
       </c>
       <c r="J61" s="3">
+        <v>83100</v>
+      </c>
+      <c r="K61" s="3">
         <v>80700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>80600</v>
       </c>
       <c r="L61" s="3">
         <v>80600</v>
@@ -3830,16 +3973,16 @@
         <v>80600</v>
       </c>
       <c r="N61" s="3">
+        <v>80600</v>
+      </c>
+      <c r="O61" s="3">
         <v>80500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>75100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>75200</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>10300</v>
       </c>
       <c r="R61" s="3">
         <v>10300</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>10300</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4843200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4849700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4798800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4507900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4525800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4457100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3505900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3398200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3003800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3006300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3078600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2640700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2220100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2195900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2040900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1590800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1621000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1626700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1624200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1122800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1154000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,10 +4570,13 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>193800</v>
+      </c>
+      <c r="E72" s="3">
         <v>180800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>168200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>154200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>141500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>131700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>116900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>110500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>100100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>89200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>78600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>72000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>65900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>61400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>57100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>53700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>51600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>47300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>45300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>44500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>668700</v>
+      </c>
+      <c r="E76" s="3">
         <v>660100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>643900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>644800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>638400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>627800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>555900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>543700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>478100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>466300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>454300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>363300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>288800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>285800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>258500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>222500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>167000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>162900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>159000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>154500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E81" s="3">
         <v>15600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>11900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6900</v>
-      </c>
-      <c r="O81" s="3">
-        <v>5200</v>
       </c>
       <c r="P81" s="3">
         <v>5200</v>
       </c>
       <c r="Q81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R81" s="3">
         <v>4000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E83" s="3">
         <v>3400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>-600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>-200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E89" s="3">
         <v>25800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>14000</v>
       </c>
       <c r="J89" s="3">
         <v>14000</v>
       </c>
       <c r="K89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L89" s="3">
         <v>13500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-119600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-122800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-68000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-32300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-211700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>49300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-32500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-34100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-61900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-45400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-25200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,58 +6017,59 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-2100</v>
       </c>
       <c r="H96" s="3">
         <v>-2100</v>
       </c>
       <c r="I96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1300</v>
       </c>
       <c r="L96" s="3">
         <v>-1300</v>
       </c>
       <c r="M96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-700</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-600</v>
       </c>
       <c r="P96" s="3">
         <v>-600</v>
       </c>
       <c r="Q96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R96" s="3">
         <v>-500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-400</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-300</v>
       </c>
       <c r="T96" s="3">
         <v>-300</v>
@@ -5844,13 +6078,16 @@
         <v>-300</v>
       </c>
       <c r="V96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E100" s="3">
         <v>46300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>286500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-23900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>73800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>451000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>11500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-79400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>102300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-21100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>23400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-38900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>81100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>27200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>128600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>11900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-105200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-50800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>250700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-41200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>64600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>252400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>117900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-82600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>89500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>36700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>70600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-55900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>86400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-8000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>FBMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,185 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43900</v>
+      </c>
+      <c r="F8" s="3">
         <v>44400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>43200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>45200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>45600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>46300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>45800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>41600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>40400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>37200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>37600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>33300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>30600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>25600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>25000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>18800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>17100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>16700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>16500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>15800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>11900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +910,14 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +984,14 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,38 +1234,44 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-1100</v>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F15" s="3">
         <v>-1100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
+      <c r="G15" s="3">
+        <v>-1100</v>
       </c>
       <c r="H15" s="3">
         <v>-1100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
         <v>-1100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L15" s="3">
         <v>-900</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1236,11 +1281,11 @@
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>40900</v>
+      </c>
+      <c r="F18" s="3">
         <v>40000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>38000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>39200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>39300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>38800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>38200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>32600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>32600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>29400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>30000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>26000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>24700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>21200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>20700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>16100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>15100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>14800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>14600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>14200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>10600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1513,158 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-19400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-18600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-17800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-20400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-23900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-19000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-22600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-17300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-13700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-14200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-16400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-15900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-14000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-11200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-8800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-8200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-11300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-12800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-7500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F21" s="3">
         <v>24300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>22800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>24800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>24900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>17400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>21800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>11300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>18200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>16800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>16400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>10300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>10000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>7500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>7600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>6200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>5700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>7800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>4500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>2500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>3000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,76 +1731,88 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F23" s="3">
         <v>20600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>19400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>21400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>19000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>14900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>19200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>10000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>15200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>15800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>15800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>9700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>8800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>6500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>6700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>5000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>6300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>6600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>3300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>3200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,67 +1820,73 @@
         <v>4400</v>
       </c>
       <c r="E24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G24" s="3">
         <v>3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>3400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1900</v>
-      </c>
-      <c r="U24" s="3">
-        <v>900</v>
-      </c>
-      <c r="V24" s="3">
-        <v>300</v>
       </c>
       <c r="W24" s="3">
         <v>900</v>
       </c>
       <c r="X24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F26" s="3">
         <v>16100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>15600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>16600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>15300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>11900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>16900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>8300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>11900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>12300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>12000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>7600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>6900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>5200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>5200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>4000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>4500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>4700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>2400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>2300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F27" s="3">
         <v>16100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>15600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>16600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>15300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>11900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>16900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>8300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>11900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>12300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>12000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>7600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>6900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>5200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>5200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>4000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>4500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>4700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>2400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>2200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,33 +2213,33 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-2100</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F32" s="3">
         <v>19400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>18600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>17800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>20400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>23900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>19000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>22600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>17300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>13700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>14200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>16400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>15900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>14700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>14000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>11200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>8800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>8200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>11300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>12800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>7500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F33" s="3">
         <v>16100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>15600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>16600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>15300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>11900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>16900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>8300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>11900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>12300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>12000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>7600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>6900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>5200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>4000</v>
-      </c>
-      <c r="S33" s="3">
-        <v>2400</v>
-      </c>
-      <c r="T33" s="3">
-        <v>4700</v>
       </c>
       <c r="U33" s="3">
         <v>2400</v>
       </c>
       <c r="V33" s="3">
+        <v>4700</v>
+      </c>
+      <c r="W33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X33" s="3">
         <v>1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>2200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F35" s="3">
         <v>16100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>15600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>16600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>15300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>11900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>16900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>8300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>11900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>12300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>12000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>7600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>6900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>5200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>4000</v>
-      </c>
-      <c r="S35" s="3">
-        <v>2400</v>
-      </c>
-      <c r="T35" s="3">
-        <v>4700</v>
       </c>
       <c r="U35" s="3">
         <v>2400</v>
       </c>
       <c r="V35" s="3">
+        <v>4700</v>
+      </c>
+      <c r="W35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X35" s="3">
         <v>1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>2200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,144 +2832,158 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>115200</v>
+      </c>
+      <c r="F41" s="3">
         <v>113200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>132300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>117500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>137700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>131900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>119900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>107300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>89700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>91800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>77000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>91500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>71400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>74600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>97600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>93600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>43000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>63700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>58200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>85100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>31700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>676900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>804500</v>
+      </c>
+      <c r="F42" s="3">
         <v>544100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>630200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>695700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>424900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>471800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>419200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>179500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>79100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>68200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>89000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>157000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>87800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>47700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>22900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>68900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>48900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>29600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>34400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>63400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>30400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +3050,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3124,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3198,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3272,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,84 +3346,96 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>131800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>132400</v>
+      </c>
+      <c r="F48" s="3">
         <v>123600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>120700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>121900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>123500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>124900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>125100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>108000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>105000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>96700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>97100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>94600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>74800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>62300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>62300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>57400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>46400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>46200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>44800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>45400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>34600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>156900</v>
+        <v>156700</v>
       </c>
       <c r="E49" s="3">
-        <v>156900</v>
+        <v>156700</v>
       </c>
       <c r="F49" s="3">
         <v>156900</v>
@@ -3223,10 +3444,10 @@
         <v>156900</v>
       </c>
       <c r="H49" s="3">
-        <v>158600</v>
+        <v>156900</v>
       </c>
       <c r="I49" s="3">
-        <v>158600</v>
+        <v>156900</v>
       </c>
       <c r="J49" s="3">
         <v>158600</v>
@@ -3235,46 +3456,52 @@
         <v>158600</v>
       </c>
       <c r="L49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="M49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="N49" s="3">
         <v>118600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>119200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>119900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>89800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>54400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>54900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>47700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>20000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>20400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>20200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>20200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>13800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3642,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3716,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6196100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6077400</v>
+      </c>
+      <c r="F54" s="3">
         <v>5511900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5509700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5442800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5152800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5164200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5084900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4061800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3941900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3481900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3472600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3533000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3004000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2508900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2481700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2299400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1813200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1788000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1789600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1783200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1277400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1266600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,64 +3924,66 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
-      </c>
-      <c r="T57" s="3">
-        <v>300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
@@ -3733,8 +3994,14 @@
       <c r="X57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,61 +4068,67 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -3869,8 +4142,14 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,13 +4216,19 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>146800</v>
+        <v>146900</v>
       </c>
       <c r="E61" s="3">
         <v>146800</v>
@@ -3952,43 +4237,43 @@
         <v>146800</v>
       </c>
       <c r="G61" s="3">
+        <v>146800</v>
+      </c>
+      <c r="H61" s="3">
+        <v>146800</v>
+      </c>
+      <c r="I61" s="3">
         <v>146900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>147000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>83100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>83100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>80700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>80600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>80600</v>
       </c>
       <c r="N61" s="3">
         <v>80600</v>
       </c>
       <c r="O61" s="3">
+        <v>80600</v>
+      </c>
+      <c r="P61" s="3">
+        <v>80600</v>
+      </c>
+      <c r="Q61" s="3">
         <v>80500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>75100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>75200</v>
-      </c>
-      <c r="R61" s="3">
-        <v>10300</v>
-      </c>
-      <c r="S61" s="3">
-        <v>10300</v>
       </c>
       <c r="T61" s="3">
         <v>10300</v>
@@ -4005,8 +4290,14 @@
       <c r="X61" s="3">
         <v>10300</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>10300</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5605700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5401200</v>
+      </c>
+      <c r="F66" s="3">
         <v>4843200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4849700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4798800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4507900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4525800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4457100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3505900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3398200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3003800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3006300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3078600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2640700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2220100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2195900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2040900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1590800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1621000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1626700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1624200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1122800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1154000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,10 +4908,16 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>219600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>206200</v>
+      </c>
+      <c r="F72" s="3">
         <v>193800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>180800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>168200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>154200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>141500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>131700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>116900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>110500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>100100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>89200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>78600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>72000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>65900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>61400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>57100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>53700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>51600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>47300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>45300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>44500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>590400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>676200</v>
+      </c>
+      <c r="F76" s="3">
         <v>668700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>660100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>643900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>644800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>638400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>627800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>555900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>543700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>478100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>466300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>454300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>363300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>288800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>285800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>258500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>222500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>167000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>162900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>159000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>154500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F81" s="3">
         <v>16100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>15600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>16600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>15300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>11900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>16900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>8300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>11900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>12300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>12000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>7600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>6900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>5200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>4000</v>
-      </c>
-      <c r="S81" s="3">
-        <v>2400</v>
-      </c>
-      <c r="T81" s="3">
-        <v>4700</v>
       </c>
       <c r="U81" s="3">
         <v>2400</v>
       </c>
       <c r="V81" s="3">
+        <v>4700</v>
+      </c>
+      <c r="W81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X81" s="3">
         <v>1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>2200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5613,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F83" s="3">
         <v>3800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>6000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>1200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>-600</v>
-      </c>
-      <c r="T83" s="3">
-        <v>1100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>1300</v>
       </c>
       <c r="V83" s="3">
         <v>1100</v>
       </c>
       <c r="W83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y83" s="3">
         <v>-200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F89" s="3">
         <v>18900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>25800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>32200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>15000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>9000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>13100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>14000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>14000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>13500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>9500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>7700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>8500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>11100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>14600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>5500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>8900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>4100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>3200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>6900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6159,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-2100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-4400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6377,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-325000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>103100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-119600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-122800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-68000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-32300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-18300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-211700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>3100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-16600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-12800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-12700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-20500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>49300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-32500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-17800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-7800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-34100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-61900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-45400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-25200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6483,84 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-3100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-2900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-2700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-2500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-2100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-2100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-400</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-300</v>
       </c>
       <c r="V96" s="3">
         <v>-300</v>
       </c>
       <c r="W96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6775,88 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>184800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>140500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>46300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>286500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-23900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>73800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>451000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>11500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-6700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-79400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>102300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-21100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>23400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-38900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>81100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>27200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-8100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>128600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>11900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6923,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-117100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>262400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-105200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-50800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>250700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-41200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>64600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>252400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>117900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>8900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-6000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-82600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>89500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>36700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-42100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>70600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-55900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>86400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-8000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>FBMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E8" s="3">
         <v>42700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>43900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>44400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>43200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>45600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>46300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>41600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>40400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>37200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>37600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>30600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>25600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>25000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>17100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>16700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>16500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>15800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1251,8 +1274,8 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="3">
-        <v>-1100</v>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G15" s="3">
         <v>-1100</v>
@@ -1260,21 +1283,21 @@
       <c r="H15" s="3">
         <v>-1100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="I15" s="3">
         <v>-1100</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>-1100</v>
       </c>
       <c r="L15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M15" s="3">
         <v>-900</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1287,8 +1310,8 @@
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E17" s="3">
         <v>4100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2000</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1900</v>
       </c>
       <c r="W17" s="3">
         <v>1900</v>
       </c>
       <c r="X17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1600</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1300</v>
       </c>
       <c r="Z17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E18" s="3">
         <v>38600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>40900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>40000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>38000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>39200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>39300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>38800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>32600</v>
       </c>
       <c r="M18" s="3">
         <v>32600</v>
       </c>
       <c r="N18" s="3">
+        <v>32600</v>
+      </c>
+      <c r="O18" s="3">
         <v>29400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>30000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>16100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>15100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>14200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>10600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-17400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-21200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-19400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-18600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-17800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-20400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-23900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-22600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-17300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-13700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-14700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-14000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-8200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-11300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-12800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-7500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E21" s="3">
         <v>24800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>23000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>24300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>16400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E23" s="3">
         <v>21200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>15800</v>
       </c>
       <c r="O23" s="3">
         <v>15800</v>
       </c>
       <c r="P23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="Q23" s="3">
         <v>9700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3800</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2000</v>
       </c>
       <c r="Q24" s="3">
         <v>2000</v>
       </c>
       <c r="R24" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="S24" s="3">
         <v>1400</v>
       </c>
       <c r="T24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E26" s="3">
         <v>16800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6900</v>
-      </c>
-      <c r="R26" s="3">
-        <v>5200</v>
       </c>
       <c r="S26" s="3">
         <v>5200</v>
       </c>
       <c r="T26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U26" s="3">
         <v>4000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E27" s="3">
         <v>16800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6900</v>
-      </c>
-      <c r="R27" s="3">
-        <v>5200</v>
       </c>
       <c r="S27" s="3">
         <v>5200</v>
       </c>
       <c r="T27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U27" s="3">
         <v>4000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2219,17 +2280,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2237,12 +2298,12 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-2100</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E32" s="3">
         <v>17400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>21200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>19400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>18600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>17800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>20400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>23900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>22600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>17300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>13700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>16400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>14700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>14000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>8200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>11300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>12800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>7500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E33" s="3">
         <v>16800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>11900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6900</v>
-      </c>
-      <c r="R33" s="3">
-        <v>5200</v>
       </c>
       <c r="S33" s="3">
         <v>5200</v>
       </c>
       <c r="T33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U33" s="3">
         <v>4000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E35" s="3">
         <v>16800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>11900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6900</v>
-      </c>
-      <c r="R35" s="3">
-        <v>5200</v>
       </c>
       <c r="S35" s="3">
         <v>5200</v>
       </c>
       <c r="T35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U35" s="3">
         <v>4000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,156 +2920,163 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>119100</v>
+      </c>
+      <c r="E41" s="3">
         <v>125700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>115200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>113200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>132300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>117500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>137700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>131900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>119900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>107300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>89700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>91800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>77000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>91500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>71400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>74600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>97600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>93600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>43000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>63700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>58200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>85100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>31700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>237700</v>
+      </c>
+      <c r="E42" s="3">
         <v>676900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>804500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>544100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>630200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>695700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>424900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>471800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>419200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>179500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>79100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>68200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>89000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>157000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>87800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>47700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>22900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>68900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>48900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>29600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>34400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>63400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>30400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,93 +3457,99 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>132700</v>
+      </c>
+      <c r="E48" s="3">
         <v>131800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>132400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>123600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>120700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>121900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>123500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>124900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>125100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>108000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>105000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>96700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>97100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>94600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>74800</v>
-      </c>
-      <c r="R48" s="3">
-        <v>62300</v>
       </c>
       <c r="S48" s="3">
         <v>62300</v>
       </c>
       <c r="T48" s="3">
+        <v>62300</v>
+      </c>
+      <c r="U48" s="3">
         <v>57400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>46400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>46200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>44800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>45400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>34600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>156700</v>
+        <v>156900</v>
       </c>
       <c r="E49" s="3">
         <v>156700</v>
       </c>
       <c r="F49" s="3">
-        <v>156900</v>
+        <v>156700</v>
       </c>
       <c r="G49" s="3">
         <v>156900</v>
@@ -3450,7 +3561,7 @@
         <v>156900</v>
       </c>
       <c r="J49" s="3">
-        <v>158600</v>
+        <v>156900</v>
       </c>
       <c r="K49" s="3">
         <v>158600</v>
@@ -3462,46 +3573,49 @@
         <v>158600</v>
       </c>
       <c r="N49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="O49" s="3">
         <v>118600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>119200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>119900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>89800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>54400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>54900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>47700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>20000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>20400</v>
-      </c>
-      <c r="W49" s="3">
-        <v>20200</v>
       </c>
       <c r="X49" s="3">
         <v>20200</v>
       </c>
       <c r="Y49" s="3">
-        <v>13800</v>
+        <v>20200</v>
       </c>
       <c r="Z49" s="3">
         <v>13800</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6037400</v>
+      </c>
+      <c r="E54" s="3">
         <v>6196100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6077400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5511900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5509700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5442800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5152800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5164200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5084900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4061800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3941900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3481900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3472600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3533000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3004000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2508900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2481700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2299400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1813200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1788000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1789600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1783200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1277400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1266600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,67 +4056,68 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
-      </c>
-      <c r="V57" s="3">
-        <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>300</v>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,53 +4208,56 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>4400</v>
       </c>
       <c r="O59" s="3">
         <v>4400</v>
       </c>
       <c r="P59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4130,8 +4267,8 @@
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4231,7 +4374,7 @@
         <v>146900</v>
       </c>
       <c r="E61" s="3">
-        <v>146800</v>
+        <v>146900</v>
       </c>
       <c r="F61" s="3">
         <v>146800</v>
@@ -4243,22 +4386,22 @@
         <v>146800</v>
       </c>
       <c r="I61" s="3">
+        <v>146800</v>
+      </c>
+      <c r="J61" s="3">
         <v>146900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>147000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>83100</v>
       </c>
       <c r="L61" s="3">
         <v>83100</v>
       </c>
       <c r="M61" s="3">
+        <v>83100</v>
+      </c>
+      <c r="N61" s="3">
         <v>80700</v>
-      </c>
-      <c r="N61" s="3">
-        <v>80600</v>
       </c>
       <c r="O61" s="3">
         <v>80600</v>
@@ -4267,16 +4410,16 @@
         <v>80600</v>
       </c>
       <c r="Q61" s="3">
+        <v>80600</v>
+      </c>
+      <c r="R61" s="3">
         <v>80500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>75100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>75200</v>
-      </c>
-      <c r="T61" s="3">
-        <v>10300</v>
       </c>
       <c r="U61" s="3">
         <v>10300</v>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>10300</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5477000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5605700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5401200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4843200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4849700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4798800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4507900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4525800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4457100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3505900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3398200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3003800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3006300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3078600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2640700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2220100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2195900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2040900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1590800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1621000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1626700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1624200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1122800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1154000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,10 +5082,13 @@
         <v>0</v>
       </c>
       <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>231700</v>
+      </c>
+      <c r="E72" s="3">
         <v>219600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>206200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>193800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>180800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>168200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>154200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>141500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>131700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>116900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>110500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>100100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>89200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>78600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>72000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>65900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>61400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>57100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>53700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>51600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>47300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>45300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>44500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>560500</v>
+      </c>
+      <c r="E76" s="3">
         <v>590400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>676200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>668700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>660100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>643900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>644800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>638400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>627800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>555900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>543700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>478100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>466300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>454300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>363300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>288800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>285800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>258500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>222500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>167000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>162900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>159000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>154500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E81" s="3">
         <v>16800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>11900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6900</v>
-      </c>
-      <c r="R81" s="3">
-        <v>5200</v>
       </c>
       <c r="S81" s="3">
         <v>5200</v>
       </c>
       <c r="T81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U81" s="3">
         <v>4000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>-600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>-200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E89" s="3">
         <v>23100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>32200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>14000</v>
       </c>
       <c r="M89" s="3">
         <v>14000</v>
       </c>
       <c r="N89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="O89" s="3">
         <v>13500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>14600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>6900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-332700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-325000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>103100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-119600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-122800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-68000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-32300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-211700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>49300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-34100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-61900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-45400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-25200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,67 +6718,68 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2500</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-2100</v>
       </c>
       <c r="K96" s="3">
         <v>-2100</v>
       </c>
       <c r="L96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1300</v>
       </c>
       <c r="O96" s="3">
         <v>-1300</v>
       </c>
       <c r="P96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-700</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-600</v>
       </c>
       <c r="S96" s="3">
         <v>-600</v>
       </c>
       <c r="T96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U96" s="3">
         <v>-500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-400</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-300</v>
       </c>
       <c r="W96" s="3">
         <v>-300</v>
@@ -6554,13 +6788,16 @@
         <v>-300</v>
       </c>
       <c r="Y96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Z96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-135300</v>
+      </c>
+      <c r="E100" s="3">
         <v>184800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>140500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>46300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>286500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-23900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>73800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>451000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>11500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-79400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>102300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-21100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>23400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-38900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>81100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>27200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>128600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>11900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-445800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-117100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>262400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-105200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-50800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>250700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-41200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>64600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>252400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>117900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-82600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>89500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>36700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-42100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>70600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-55900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>86400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>FBMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E8" s="3">
         <v>45800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>42700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>44400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>43200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>45200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>45600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>41600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>40400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>37200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>37600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>30600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>25600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>25000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>17100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>16700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>16500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>15800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1277,8 +1300,8 @@
       <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="3">
-        <v>-1100</v>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H15" s="3">
         <v>-1100</v>
@@ -1286,21 +1309,21 @@
       <c r="I15" s="3">
         <v>-1100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="J15" s="3">
         <v>-1100</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L15" s="3">
         <v>-1100</v>
       </c>
       <c r="M15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N15" s="3">
         <v>-900</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1313,8 +1336,8 @@
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2000</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1900</v>
       </c>
       <c r="X17" s="3">
         <v>1900</v>
       </c>
       <c r="Y17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1600</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>1300</v>
       </c>
       <c r="AA17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E18" s="3">
         <v>41500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>38600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>40900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>40000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>38000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>39200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>39300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>32600</v>
       </c>
       <c r="N18" s="3">
         <v>32600</v>
       </c>
       <c r="O18" s="3">
+        <v>32600</v>
+      </c>
+      <c r="P18" s="3">
         <v>29400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>30000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>26000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>21200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>20700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>16100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>15100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>14600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>14200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>10600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-22200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-17400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-21200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-19400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-18600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-17800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-20400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-23900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-22600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-17300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-13700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-16400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-15900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-14700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-14000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-11200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-8800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-8200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-12800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-7500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E21" s="3">
         <v>22200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>24800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>23000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>24300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>22800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>16800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>16400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E23" s="3">
         <v>19200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>15800</v>
       </c>
       <c r="P23" s="3">
         <v>15800</v>
       </c>
       <c r="Q23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="R23" s="3">
         <v>9700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E24" s="3">
         <v>3500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>2000</v>
       </c>
       <c r="R24" s="3">
         <v>2000</v>
       </c>
       <c r="S24" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="T24" s="3">
         <v>1400</v>
       </c>
       <c r="U24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E26" s="3">
         <v>15800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6900</v>
-      </c>
-      <c r="S26" s="3">
-        <v>5200</v>
       </c>
       <c r="T26" s="3">
         <v>5200</v>
       </c>
       <c r="U26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="V26" s="3">
         <v>4000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E27" s="3">
         <v>15800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6900</v>
-      </c>
-      <c r="S27" s="3">
-        <v>5200</v>
       </c>
       <c r="T27" s="3">
         <v>5200</v>
       </c>
       <c r="U27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="V27" s="3">
         <v>4000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,17 +2344,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2301,12 +2362,12 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-2100</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E32" s="3">
         <v>22200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>17400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>21200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>19400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>18600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>17800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>20400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>23900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>22600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>17300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>13700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>14200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>16400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>15900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>14700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>14000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>11200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>8800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>8200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>11300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>12800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>7500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E33" s="3">
         <v>15800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6900</v>
-      </c>
-      <c r="S33" s="3">
-        <v>5200</v>
       </c>
       <c r="T33" s="3">
         <v>5200</v>
       </c>
       <c r="U33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="V33" s="3">
         <v>4000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E35" s="3">
         <v>15800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6900</v>
-      </c>
-      <c r="S35" s="3">
-        <v>5200</v>
       </c>
       <c r="T35" s="3">
         <v>5200</v>
       </c>
       <c r="U35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="V35" s="3">
         <v>4000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,162 +3007,169 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E41" s="3">
         <v>119100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>125700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>115200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>113200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>132300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>117500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>137700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>131900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>119900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>107300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>89700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>91800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>77000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>91500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>71400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>74600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>97600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>93600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>43000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>63700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>58200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>85100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>31700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>92300</v>
+      </c>
+      <c r="E42" s="3">
         <v>237700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>676900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>804500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>544100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>630200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>695700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>424900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>471800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>419200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>179500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>79100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>68200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>89000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>157000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>87800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>47700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>22900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>68900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>48900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>29600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>34400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>63400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>30400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,99 +3565,105 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E48" s="3">
         <v>132700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>131800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>132400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>123600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>120700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>121900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>123500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>124900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>125100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>108000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>105000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>96700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>97100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>94600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>74800</v>
-      </c>
-      <c r="S48" s="3">
-        <v>62300</v>
       </c>
       <c r="T48" s="3">
         <v>62300</v>
       </c>
       <c r="U48" s="3">
+        <v>62300</v>
+      </c>
+      <c r="V48" s="3">
         <v>57400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>46400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>46200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>44800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>45400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>34600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>178800</v>
+      </c>
+      <c r="E49" s="3">
         <v>156900</v>
-      </c>
-      <c r="E49" s="3">
-        <v>156700</v>
       </c>
       <c r="F49" s="3">
         <v>156700</v>
       </c>
       <c r="G49" s="3">
-        <v>156900</v>
+        <v>156700</v>
       </c>
       <c r="H49" s="3">
         <v>156900</v>
@@ -3564,7 +3675,7 @@
         <v>156900</v>
       </c>
       <c r="K49" s="3">
-        <v>158600</v>
+        <v>156900</v>
       </c>
       <c r="L49" s="3">
         <v>158600</v>
@@ -3576,46 +3687,49 @@
         <v>158600</v>
       </c>
       <c r="O49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="P49" s="3">
         <v>118600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>119200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>119900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>89800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>54400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>54900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>47700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>20000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>20400</v>
-      </c>
-      <c r="X49" s="3">
-        <v>20200</v>
       </c>
       <c r="Y49" s="3">
         <v>20200</v>
       </c>
       <c r="Z49" s="3">
-        <v>13800</v>
+        <v>20200</v>
       </c>
       <c r="AA49" s="3">
         <v>13800</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6454800</v>
+      </c>
+      <c r="E54" s="3">
         <v>6037400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6196100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6077400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5511900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5509700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5442800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5152800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5164200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5084900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4061800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3941900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3481900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3472600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3533000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3004000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2508900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2481700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2299400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1813200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1788000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1789600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1783200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1277400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1266600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,70 +4187,71 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
-      </c>
-      <c r="W57" s="3">
-        <v>300</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,56 +4345,59 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E59" s="3">
         <v>4100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>4400</v>
       </c>
       <c r="P59" s="3">
         <v>4400</v>
       </c>
       <c r="Q59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R59" s="3">
         <v>3600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4270,8 +4407,8 @@
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4377,7 +4520,7 @@
         <v>146900</v>
       </c>
       <c r="F61" s="3">
-        <v>146800</v>
+        <v>146900</v>
       </c>
       <c r="G61" s="3">
         <v>146800</v>
@@ -4389,22 +4532,22 @@
         <v>146800</v>
       </c>
       <c r="J61" s="3">
+        <v>146800</v>
+      </c>
+      <c r="K61" s="3">
         <v>146900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>147000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>83100</v>
       </c>
       <c r="M61" s="3">
         <v>83100</v>
       </c>
       <c r="N61" s="3">
+        <v>83100</v>
+      </c>
+      <c r="O61" s="3">
         <v>80700</v>
-      </c>
-      <c r="O61" s="3">
-        <v>80600</v>
       </c>
       <c r="P61" s="3">
         <v>80600</v>
@@ -4413,16 +4556,16 @@
         <v>80600</v>
       </c>
       <c r="R61" s="3">
+        <v>80600</v>
+      </c>
+      <c r="S61" s="3">
         <v>80500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>75100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>75200</v>
-      </c>
-      <c r="U61" s="3">
-        <v>10300</v>
       </c>
       <c r="V61" s="3">
         <v>10300</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>10300</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5833400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5477000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5605700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5401200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4843200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4849700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4798800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4507900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4525800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4457100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3505900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3398200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3003800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3006300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3078600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2640700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2220100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2195900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2040900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1590800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1621000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1626700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1624200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1122800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1154000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,10 +5253,13 @@
         <v>0</v>
       </c>
       <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>241100</v>
+      </c>
+      <c r="E72" s="3">
         <v>231700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>219600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>206200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>193800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>180800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>168200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>154200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>141500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>131700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>116900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>110500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>100100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>89200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>78600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>72000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>65900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>61400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>57100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>53700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>51600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>47300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>45300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>44500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>621500</v>
+      </c>
+      <c r="E76" s="3">
         <v>560500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>590400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>676200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>668700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>660100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>643900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>644800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>638400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>627800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>555900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>543700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>478100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>466300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>454300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>363300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>288800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>285800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>258500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>222500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>167000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>162900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>159000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>154500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E81" s="3">
         <v>15800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6900</v>
-      </c>
-      <c r="S81" s="3">
-        <v>5200</v>
       </c>
       <c r="T81" s="3">
         <v>5200</v>
       </c>
       <c r="U81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="V81" s="3">
         <v>4000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>-600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>-200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E89" s="3">
         <v>22100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>18900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>14000</v>
       </c>
       <c r="N89" s="3">
         <v>14000</v>
       </c>
       <c r="O89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="P89" s="3">
         <v>13500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>14600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>8900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>6900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-332700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-325000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>103100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-119600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-122800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-68000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-32300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-211700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-20500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>49300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-17800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-34100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-61900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-45400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-25200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,70 +6952,71 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2500</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-2100</v>
       </c>
       <c r="L96" s="3">
         <v>-2100</v>
       </c>
       <c r="M96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1300</v>
       </c>
       <c r="P96" s="3">
         <v>-1300</v>
       </c>
       <c r="Q96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-700</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-600</v>
       </c>
       <c r="T96" s="3">
         <v>-600</v>
       </c>
       <c r="U96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V96" s="3">
         <v>-500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-400</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-300</v>
       </c>
       <c r="X96" s="3">
         <v>-300</v>
@@ -6791,13 +7025,16 @@
         <v>-300</v>
       </c>
       <c r="Z96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AA96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-184900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-135300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>184800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>140500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>46300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>286500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-23900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>73800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>451000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>11500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-79400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>102300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-21100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>23400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-38900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>81100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>27200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-8100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>128600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>11900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-192900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-445800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-117100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>262400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-105200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-50800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>250700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-41200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>64600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>252400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>117900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-82600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>89500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>36700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-42100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>70600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-55900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>86400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>FBMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,205 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E8" s="3">
         <v>53900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>45800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>42700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>43900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>44400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>43200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>45200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>46300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>45800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>41600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>40400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>37200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>37600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>30600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>25600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>25000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>18800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>17100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>16700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>16500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>15800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1303,8 +1325,8 @@
       <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="3">
-        <v>-1100</v>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I15" s="3">
         <v>-1100</v>
@@ -1312,21 +1334,21 @@
       <c r="J15" s="3">
         <v>-1100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="K15" s="3">
         <v>-1100</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M15" s="3">
         <v>-1100</v>
       </c>
       <c r="N15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O15" s="3">
         <v>-900</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1339,8 +1361,8 @@
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E17" s="3">
         <v>9000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2000</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1900</v>
       </c>
       <c r="Y17" s="3">
         <v>1900</v>
       </c>
       <c r="Z17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AA17" s="3">
         <v>1600</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>1300</v>
       </c>
       <c r="AB17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E18" s="3">
         <v>44900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>41500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>38600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>40900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>40000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>38000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>39200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>38200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>32600</v>
       </c>
       <c r="O18" s="3">
         <v>32600</v>
       </c>
       <c r="P18" s="3">
+        <v>32600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>29400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>30000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>26000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>21200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>20700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>16100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>15100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>14800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>14600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>14200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>10600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,159 +1625,165 @@
         <v>-26900</v>
       </c>
       <c r="E20" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-22200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-17400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-21200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-19400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-18600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-17800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-23900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-22600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-17300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-14200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-16400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-15900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-14700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-14000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-11200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-8800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-12800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-7500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E21" s="3">
         <v>17000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>22200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>24800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>23000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>22800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>18200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>16800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>16400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,168 +1862,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E23" s="3">
         <v>18000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>20600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>15800</v>
       </c>
       <c r="Q23" s="3">
         <v>15800</v>
       </c>
       <c r="R23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="S23" s="3">
         <v>9700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3800</v>
-      </c>
-      <c r="R24" s="3">
-        <v>2000</v>
       </c>
       <c r="S24" s="3">
         <v>2000</v>
       </c>
       <c r="T24" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="U24" s="3">
         <v>1400</v>
       </c>
       <c r="V24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E26" s="3">
         <v>14000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6900</v>
-      </c>
-      <c r="T26" s="3">
-        <v>5200</v>
       </c>
       <c r="U26" s="3">
         <v>5200</v>
       </c>
       <c r="V26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="W26" s="3">
         <v>4000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E27" s="3">
         <v>14000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6900</v>
-      </c>
-      <c r="T27" s="3">
-        <v>5200</v>
       </c>
       <c r="U27" s="3">
         <v>5200</v>
       </c>
       <c r="V27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="W27" s="3">
         <v>4000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2347,17 +2407,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -2365,12 +2425,12 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-2100</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,159 +2621,165 @@
         <v>26900</v>
       </c>
       <c r="E32" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F32" s="3">
         <v>22200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>17400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>21200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>19400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>18600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>17800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>23900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>22600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>17300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>13700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>14200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>16400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>15900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>14700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>14000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>11200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>8800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>8200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>11300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>12800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>7500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E33" s="3">
         <v>14000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6900</v>
-      </c>
-      <c r="T33" s="3">
-        <v>5200</v>
       </c>
       <c r="U33" s="3">
         <v>5200</v>
       </c>
       <c r="V33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="W33" s="3">
         <v>4000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E35" s="3">
         <v>14000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6900</v>
-      </c>
-      <c r="T35" s="3">
-        <v>5200</v>
       </c>
       <c r="U35" s="3">
         <v>5200</v>
       </c>
       <c r="V35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="W35" s="3">
         <v>4000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,168 +3093,175 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E41" s="3">
         <v>71600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>119100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>125700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>115200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>113200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>132300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>117500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>137700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>131900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>119900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>107300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>89700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>91800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>77000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>91500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>71400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>74600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>97600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>93600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>43000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>63700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>58200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>85100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>31700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E42" s="3">
         <v>92300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>237700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>676900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>804500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>544100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>630200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>695700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>424900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>471800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>419200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>179500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>79100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>68200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>89000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>157000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>87800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>47700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>22900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>68900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>48900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>29600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>34400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>63400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>30400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3506,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3589,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,105 +3672,111 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>153100</v>
+      </c>
+      <c r="E48" s="3">
         <v>150500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>132700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>131800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>132400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>123600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>120700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>121900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>123500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>124900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>125100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>108000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>105000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>96700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>97100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>94600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>74800</v>
-      </c>
-      <c r="T48" s="3">
-        <v>62300</v>
       </c>
       <c r="U48" s="3">
         <v>62300</v>
       </c>
       <c r="V48" s="3">
+        <v>62300</v>
+      </c>
+      <c r="W48" s="3">
         <v>57400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>46400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>46200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>44800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>45400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>34600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>180300</v>
+      </c>
+      <c r="E49" s="3">
         <v>178800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>156900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>156700</v>
       </c>
       <c r="G49" s="3">
         <v>156700</v>
       </c>
       <c r="H49" s="3">
-        <v>156900</v>
+        <v>156700</v>
       </c>
       <c r="I49" s="3">
         <v>156900</v>
@@ -3678,7 +3788,7 @@
         <v>156900</v>
       </c>
       <c r="L49" s="3">
-        <v>158600</v>
+        <v>156900</v>
       </c>
       <c r="M49" s="3">
         <v>158600</v>
@@ -3690,46 +3800,49 @@
         <v>158600</v>
       </c>
       <c r="P49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="Q49" s="3">
         <v>118600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>119200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>119900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>89800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>54400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>54900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>47700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>20000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>20400</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>20200</v>
       </c>
       <c r="Z49" s="3">
         <v>20200</v>
       </c>
       <c r="AA49" s="3">
-        <v>13800</v>
+        <v>20200</v>
       </c>
       <c r="AB49" s="3">
         <v>13800</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6461700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6454800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6037400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6196100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6077400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5511900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5509700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5442800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5152800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5164200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5084900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4061800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3941900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3481900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3472600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3533000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3004000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2508900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2481700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2299400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1813200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1788000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1789600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1783200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1277400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1266600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,73 +4317,74 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
-      </c>
-      <c r="X57" s="3">
-        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>300</v>
@@ -4268,8 +4398,11 @@
       <c r="AB57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,59 +4481,62 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E59" s="3">
         <v>8100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>4400</v>
       </c>
       <c r="Q59" s="3">
         <v>4400</v>
       </c>
       <c r="R59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S59" s="3">
         <v>3600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4410,8 +4546,8 @@
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4428,8 +4564,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4647,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4523,7 +4665,7 @@
         <v>146900</v>
       </c>
       <c r="G61" s="3">
-        <v>146800</v>
+        <v>146900</v>
       </c>
       <c r="H61" s="3">
         <v>146800</v>
@@ -4535,22 +4677,22 @@
         <v>146800</v>
       </c>
       <c r="K61" s="3">
+        <v>146800</v>
+      </c>
+      <c r="L61" s="3">
         <v>146900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>147000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>83100</v>
       </c>
       <c r="N61" s="3">
         <v>83100</v>
       </c>
       <c r="O61" s="3">
+        <v>83100</v>
+      </c>
+      <c r="P61" s="3">
         <v>80700</v>
-      </c>
-      <c r="P61" s="3">
-        <v>80600</v>
       </c>
       <c r="Q61" s="3">
         <v>80600</v>
@@ -4559,16 +4701,16 @@
         <v>80600</v>
       </c>
       <c r="S61" s="3">
+        <v>80600</v>
+      </c>
+      <c r="T61" s="3">
         <v>80500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>75100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>75200</v>
-      </c>
-      <c r="V61" s="3">
-        <v>10300</v>
       </c>
       <c r="W61" s="3">
         <v>10300</v>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>10300</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5815100</v>
+      </c>
+      <c r="E66" s="3">
         <v>5833400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5477000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5605700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5401200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4843200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4849700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4798800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4507900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4525800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4457100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3505900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3398200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3003800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3006300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3078600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2640700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2220100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2195900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2040900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1590800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1621000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1626700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1624200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1122800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1154000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,10 +5423,13 @@
         <v>0</v>
       </c>
       <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>252600</v>
+      </c>
+      <c r="E72" s="3">
         <v>241100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>231700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>219600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>206200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>193800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>180800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>168200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>154200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>141500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>131700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>116900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>110500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>100100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>89200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>78600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>72000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>65900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>61400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>57100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>53700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>51600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>47300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>45300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>44500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>646700</v>
+      </c>
+      <c r="E76" s="3">
         <v>621500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>560500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>590400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>676200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>668700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>660100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>643900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>644800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>638400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>627800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>555900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>543700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>478100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>466300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>454300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>363300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>288800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>285800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>258500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>222500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>167000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>162900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>159000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>154500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E81" s="3">
         <v>14000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6900</v>
-      </c>
-      <c r="T81" s="3">
-        <v>5200</v>
       </c>
       <c r="U81" s="3">
         <v>5200</v>
       </c>
       <c r="V81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="W81" s="3">
         <v>4000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E83" s="3">
         <v>-1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>-600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>-200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E89" s="3">
         <v>23200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>18800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>14000</v>
       </c>
       <c r="O89" s="3">
         <v>14000</v>
       </c>
       <c r="P89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="Q89" s="3">
         <v>13500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>14600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>8900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>6900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-332700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-325000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>103100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-119600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-122800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-68000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-32300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-211700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-20500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>49300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-17800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-34100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-61900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-45400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-25200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,73 +7185,74 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2500</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-2100</v>
       </c>
       <c r="M96" s="3">
         <v>-2100</v>
       </c>
       <c r="N96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1300</v>
       </c>
       <c r="Q96" s="3">
         <v>-1300</v>
       </c>
       <c r="R96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-700</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-600</v>
       </c>
       <c r="U96" s="3">
         <v>-600</v>
       </c>
       <c r="V96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W96" s="3">
         <v>-500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-400</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-300</v>
       </c>
       <c r="Y96" s="3">
         <v>-300</v>
@@ -7028,13 +7261,16 @@
         <v>-300</v>
       </c>
       <c r="AA96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AB96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7515,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-184900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-135300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>184800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>140500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>46300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>286500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>73800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>451000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>11500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-79400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>102300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-21100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>23400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-38900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>81100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>27200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-8100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>128600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>11900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7681,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-192900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-445800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-117100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>262400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-105200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-50800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>250700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-41200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>64600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>252400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>117900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-82600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>89500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>36700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-42100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>70600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-55900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>86400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>FBMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,212 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E8" s="3">
         <v>57900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>53900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>42700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>43900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>44400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>43200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>46300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>45800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>41600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>40400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>37200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>37600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>33300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>30600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>25600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>25000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>18800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>17100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>16700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>16500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>15800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1328,8 +1351,8 @@
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
-        <v>-1100</v>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J15" s="3">
         <v>-1100</v>
@@ -1337,21 +1360,21 @@
       <c r="K15" s="3">
         <v>-1100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="L15" s="3">
         <v>-1100</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N15" s="3">
         <v>-1100</v>
       </c>
       <c r="O15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P15" s="3">
         <v>-900</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1364,8 +1387,8 @@
       <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E17" s="3">
         <v>10700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2000</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1900</v>
       </c>
       <c r="Z17" s="3">
         <v>1900</v>
       </c>
       <c r="AA17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AB17" s="3">
         <v>1600</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>1300</v>
       </c>
       <c r="AC17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E18" s="3">
         <v>47200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>44900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>41500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>38600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>40900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>40000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>38000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>38800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>38200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>32600</v>
       </c>
       <c r="P18" s="3">
         <v>32600</v>
       </c>
       <c r="Q18" s="3">
+        <v>32600</v>
+      </c>
+      <c r="R18" s="3">
         <v>29400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>30000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>26000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>24700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>21200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>20700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>16100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>15100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>14800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>14600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>14200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>10600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1649,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-26900</v>
+        <v>-33000</v>
       </c>
       <c r="E20" s="3">
         <v>-26900</v>
       </c>
       <c r="F20" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-22200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-17400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-21200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-19400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-18600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-17800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-23900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-19000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-22600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-13700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-14200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-16400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-15900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-14700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-14000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-11200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-11300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-12800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-7500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E21" s="3">
         <v>26900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>22200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>24800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>23000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>22800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>18200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>16800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>16400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>7800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,174 +1905,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E23" s="3">
         <v>20300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>20600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>15800</v>
       </c>
       <c r="R23" s="3">
         <v>15800</v>
       </c>
       <c r="S23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="T23" s="3">
         <v>9700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3800</v>
-      </c>
-      <c r="S24" s="3">
-        <v>2000</v>
       </c>
       <c r="T24" s="3">
         <v>2000</v>
       </c>
       <c r="U24" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="V24" s="3">
         <v>1400</v>
       </c>
       <c r="W24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,8 +2163,11 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2123,82 +2175,85 @@
         <v>16300</v>
       </c>
       <c r="E26" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F26" s="3">
         <v>14000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6900</v>
-      </c>
-      <c r="U26" s="3">
-        <v>5200</v>
       </c>
       <c r="V26" s="3">
         <v>5200</v>
       </c>
       <c r="W26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="X26" s="3">
         <v>4000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2206,82 +2261,85 @@
         <v>16300</v>
       </c>
       <c r="E27" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F27" s="3">
         <v>14000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6900</v>
-      </c>
-      <c r="U27" s="3">
-        <v>5200</v>
       </c>
       <c r="V27" s="3">
         <v>5200</v>
       </c>
       <c r="W27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="X27" s="3">
         <v>4000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2410,17 +2471,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
@@ -2428,12 +2489,12 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,91 +2679,97 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>26900</v>
+        <v>33000</v>
       </c>
       <c r="E32" s="3">
         <v>26900</v>
       </c>
       <c r="F32" s="3">
+        <v>26900</v>
+      </c>
+      <c r="G32" s="3">
         <v>22200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>17400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>21200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>19400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>18600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>17800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>23900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>22600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>17300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>13700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>14200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>16400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>15900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>14700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>14000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>11200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>8800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>8200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>11300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>12800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>7500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,82 +2777,85 @@
         <v>16300</v>
       </c>
       <c r="E33" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F33" s="3">
         <v>14000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6900</v>
-      </c>
-      <c r="U33" s="3">
-        <v>5200</v>
       </c>
       <c r="V33" s="3">
         <v>5200</v>
       </c>
       <c r="W33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="X33" s="3">
         <v>4000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,8 +2937,11 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2870,170 +2949,176 @@
         <v>16300</v>
       </c>
       <c r="E35" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F35" s="3">
         <v>14000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6900</v>
-      </c>
-      <c r="U35" s="3">
-        <v>5200</v>
       </c>
       <c r="V35" s="3">
         <v>5200</v>
       </c>
       <c r="W35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="X35" s="3">
         <v>4000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,174 +3180,181 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E41" s="3">
         <v>67200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>71600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>119100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>125700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>115200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>113200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>132300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>117500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>137700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>131900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>119900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>107300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>89700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>91800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>77000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>91500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>71400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>74600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>97600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>93600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>43000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>63700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>58200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>85100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>31700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>226900</v>
+      </c>
+      <c r="E42" s="3">
         <v>78100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>92300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>237700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>676900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>804500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>544100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>630200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>695700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>424900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>471800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>419200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>179500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>79100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>68200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>89000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>157000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>87800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>47700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>22900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>68900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>48900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>29600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>34400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>63400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>30400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3509,8 +3608,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3592,8 +3694,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,111 +3780,117 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>186700</v>
+      </c>
+      <c r="E48" s="3">
         <v>153100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>150500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>132700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>131800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>132400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>123600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>120700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>121900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>123500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>124900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>125100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>108000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>105000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>96700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>97100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>94600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>74800</v>
-      </c>
-      <c r="U48" s="3">
-        <v>62300</v>
       </c>
       <c r="V48" s="3">
         <v>62300</v>
       </c>
       <c r="W48" s="3">
+        <v>62300</v>
+      </c>
+      <c r="X48" s="3">
         <v>57400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>46400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>46200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>44800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>45400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>34600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>271800</v>
+      </c>
+      <c r="E49" s="3">
         <v>180300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>178800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>156900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>156700</v>
       </c>
       <c r="H49" s="3">
         <v>156700</v>
       </c>
       <c r="I49" s="3">
-        <v>156900</v>
+        <v>156700</v>
       </c>
       <c r="J49" s="3">
         <v>156900</v>
@@ -3791,7 +3902,7 @@
         <v>156900</v>
       </c>
       <c r="M49" s="3">
-        <v>158600</v>
+        <v>156900</v>
       </c>
       <c r="N49" s="3">
         <v>158600</v>
@@ -3803,46 +3914,49 @@
         <v>158600</v>
       </c>
       <c r="Q49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="R49" s="3">
         <v>118600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>119200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>119900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>89800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>54400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>54900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>47700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>20000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>20400</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>20200</v>
       </c>
       <c r="AA49" s="3">
         <v>20200</v>
       </c>
       <c r="AB49" s="3">
-        <v>13800</v>
+        <v>20200</v>
       </c>
       <c r="AC49" s="3">
         <v>13800</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8017300</v>
+      </c>
+      <c r="E54" s="3">
         <v>6461700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6454800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6037400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6196100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6077400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5511900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5509700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5442800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5152800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5164200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5084900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4061800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3941900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3481900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3472600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3533000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3004000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2508900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2481700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2299400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1813200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1788000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1789600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1783200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1277400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1266600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,76 +4448,77 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>400</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>300</v>
       </c>
       <c r="Z57" s="3">
         <v>300</v>
@@ -4401,8 +4532,11 @@
       <c r="AC57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4484,62 +4618,65 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E59" s="3">
         <v>7800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>4400</v>
       </c>
       <c r="R59" s="3">
         <v>4400</v>
       </c>
       <c r="S59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="T59" s="3">
         <v>3600</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4549,8 +4686,8 @@
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="X59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4567,8 +4704,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4650,13 +4790,16 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>146900</v>
+        <v>156000</v>
       </c>
       <c r="E61" s="3">
         <v>146900</v>
@@ -4668,7 +4811,7 @@
         <v>146900</v>
       </c>
       <c r="H61" s="3">
-        <v>146800</v>
+        <v>146900</v>
       </c>
       <c r="I61" s="3">
         <v>146800</v>
@@ -4680,22 +4823,22 @@
         <v>146800</v>
       </c>
       <c r="L61" s="3">
+        <v>146800</v>
+      </c>
+      <c r="M61" s="3">
         <v>146900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>147000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>83100</v>
       </c>
       <c r="O61" s="3">
         <v>83100</v>
       </c>
       <c r="P61" s="3">
+        <v>83100</v>
+      </c>
+      <c r="Q61" s="3">
         <v>80700</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>80600</v>
       </c>
       <c r="R61" s="3">
         <v>80600</v>
@@ -4704,16 +4847,16 @@
         <v>80600</v>
       </c>
       <c r="T61" s="3">
+        <v>80600</v>
+      </c>
+      <c r="U61" s="3">
         <v>80500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>75100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>75200</v>
-      </c>
-      <c r="W61" s="3">
-        <v>10300</v>
       </c>
       <c r="X61" s="3">
         <v>10300</v>
@@ -4733,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>10300</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7120900</v>
+      </c>
+      <c r="E66" s="3">
         <v>5815100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5833400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5477000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5605700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5401200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4843200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4849700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4798800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4507900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4525800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4457100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3505900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3398200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3003800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3006300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3078600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2640700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2220100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2195900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2040900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1590800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1621000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1626700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1624200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1122800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1154000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5426,10 +5594,13 @@
         <v>0</v>
       </c>
       <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>262400</v>
+      </c>
+      <c r="E72" s="3">
         <v>252600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>241100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>231700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>219600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>206200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>193800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>180800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>168200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>154200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>141500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>131700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>116900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>110500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>100100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>89200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>78600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>72000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>65900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>61400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>57100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>53700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>51600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>47300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>45300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>44500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>896400</v>
+      </c>
+      <c r="E76" s="3">
         <v>646700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>621500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>560500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>590400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>676200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>668700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>660100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>643900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>644800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>638400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>627800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>555900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>543700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>478100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>466300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>454300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>363300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>288800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>285800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>258500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>222500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>167000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>162900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>159000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>154500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,96 +6198,102 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6106,82 +6301,85 @@
         <v>16300</v>
       </c>
       <c r="E81" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F81" s="3">
         <v>14000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6900</v>
-      </c>
-      <c r="U81" s="3">
-        <v>5200</v>
       </c>
       <c r="V81" s="3">
         <v>5200</v>
       </c>
       <c r="W81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="X81" s="3">
         <v>4000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E83" s="3">
         <v>6600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>-1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>-600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>-200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E89" s="3">
         <v>21600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>14000</v>
       </c>
       <c r="P89" s="3">
         <v>14000</v>
       </c>
       <c r="Q89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="R89" s="3">
         <v>13500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>14600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>8900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>6900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-4400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>289900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-332700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-325000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>103100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-119600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-122800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-68000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-32300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-211700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-20500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>49300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-17800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-34100</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-61900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-45400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-25200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,76 +7419,77 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-4500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2500</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-2100</v>
       </c>
       <c r="N96" s="3">
         <v>-2100</v>
       </c>
       <c r="O96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1300</v>
       </c>
       <c r="R96" s="3">
         <v>-1300</v>
       </c>
       <c r="S96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-700</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-600</v>
       </c>
       <c r="V96" s="3">
         <v>-600</v>
       </c>
       <c r="W96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X96" s="3">
         <v>-500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-300</v>
       </c>
       <c r="Z96" s="3">
         <v>-300</v>
@@ -7264,13 +7498,16 @@
         <v>-300</v>
       </c>
       <c r="AB96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AC96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,91 +7761,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-106400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-22100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-184900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-135300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>184800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>140500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>46300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>286500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-23900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>73800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>451000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>11500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-79400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>102300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-21100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>23400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-38900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>81100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>27200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-8100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>128600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>11900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>188200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-192900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-445800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-117100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>262400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-105200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-50800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>250700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-41200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>64600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>252400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>117900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-82600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>89500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>36700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-42100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>70600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-55900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>86400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-8000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>FBMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,212 +665,219 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E8" s="3">
         <v>80300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>57900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>53900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>42700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>43900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>44400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>43200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>45600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>46300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>45800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>41600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>40400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>37200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>37600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>33300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>30600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>25600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>25000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>18800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>17100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>16700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>16500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>15800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1354,8 +1377,8 @@
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="3">
-        <v>-1100</v>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>-1100</v>
@@ -1363,21 +1386,21 @@
       <c r="L15" s="3">
         <v>-1100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="M15" s="3">
         <v>-1100</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O15" s="3">
         <v>-1100</v>
       </c>
       <c r="P15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-900</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1390,8 +1413,8 @@
       <c r="U15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E17" s="3">
         <v>26400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2000</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>1900</v>
       </c>
       <c r="AA17" s="3">
         <v>1900</v>
       </c>
       <c r="AB17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AC17" s="3">
         <v>1600</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>1300</v>
       </c>
       <c r="AD17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E18" s="3">
         <v>53900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>47200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>44900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>41500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>38600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>40900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>40000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>38800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>38200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>32600</v>
       </c>
       <c r="Q18" s="3">
         <v>32600</v>
       </c>
       <c r="R18" s="3">
+        <v>32600</v>
+      </c>
+      <c r="S18" s="3">
         <v>29400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>30000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>26000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>24700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>21200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>20700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>16100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>15100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>14800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>14600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>14200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>10600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1683,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-33000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-26900</v>
       </c>
       <c r="F20" s="3">
         <v>-26900</v>
       </c>
       <c r="G20" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-22200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-17400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-21200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-19400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-18600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-17800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-23900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-19000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-22600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-17300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-13700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-14200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-16400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-15900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-14700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-14000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-8800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-11300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-12800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-7500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E21" s="3">
         <v>24200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>26900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>17000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>23000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>24900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>16800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>16400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>10300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>10000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>6200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>5700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>7800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E23" s="3">
         <v>20900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>20600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>15800</v>
       </c>
       <c r="S23" s="3">
         <v>15800</v>
       </c>
       <c r="T23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="U23" s="3">
         <v>9700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>6600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E24" s="3">
         <v>4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3800</v>
-      </c>
-      <c r="T24" s="3">
-        <v>2000</v>
       </c>
       <c r="U24" s="3">
         <v>2000</v>
       </c>
       <c r="V24" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="W24" s="3">
         <v>1400</v>
       </c>
       <c r="X24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y24" s="3">
         <v>1000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>16300</v>
+        <v>23800</v>
       </c>
       <c r="E26" s="3">
         <v>16300</v>
       </c>
       <c r="F26" s="3">
+        <v>16300</v>
+      </c>
+      <c r="G26" s="3">
         <v>14000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6900</v>
-      </c>
-      <c r="V26" s="3">
-        <v>5200</v>
       </c>
       <c r="W26" s="3">
         <v>5200</v>
       </c>
       <c r="X26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>4000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16300</v>
+        <v>23800</v>
       </c>
       <c r="E27" s="3">
         <v>16300</v>
       </c>
       <c r="F27" s="3">
+        <v>16300</v>
+      </c>
+      <c r="G27" s="3">
         <v>14000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6900</v>
-      </c>
-      <c r="V27" s="3">
-        <v>5200</v>
       </c>
       <c r="W27" s="3">
         <v>5200</v>
       </c>
       <c r="X27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>4000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2474,17 +2535,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
@@ -2492,12 +2553,12 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E32" s="3">
         <v>33000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>26900</v>
       </c>
       <c r="F32" s="3">
         <v>26900</v>
       </c>
       <c r="G32" s="3">
+        <v>26900</v>
+      </c>
+      <c r="H32" s="3">
         <v>22200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>17400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>21200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>19400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>18600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>17800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>23900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>19000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>22600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>17300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>13700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>14200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>16400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>15900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>14700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>14000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>11200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>8800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>8200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>11300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>12800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>7500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16300</v>
+        <v>23800</v>
       </c>
       <c r="E33" s="3">
         <v>16300</v>
       </c>
       <c r="F33" s="3">
+        <v>16300</v>
+      </c>
+      <c r="G33" s="3">
         <v>14000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6900</v>
-      </c>
-      <c r="V33" s="3">
-        <v>5200</v>
       </c>
       <c r="W33" s="3">
         <v>5200</v>
       </c>
       <c r="X33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>4000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16300</v>
+        <v>23800</v>
       </c>
       <c r="E35" s="3">
         <v>16300</v>
       </c>
       <c r="F35" s="3">
+        <v>16300</v>
+      </c>
+      <c r="G35" s="3">
         <v>14000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6900</v>
-      </c>
-      <c r="V35" s="3">
-        <v>5200</v>
       </c>
       <c r="W35" s="3">
         <v>5200</v>
       </c>
       <c r="X35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>4000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,180 +3267,187 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>105800</v>
+      </c>
+      <c r="E41" s="3">
         <v>106600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>67200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>71600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>119100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>125700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>115200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>113200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>132300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>117500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>137700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>131900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>119900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>107300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>89700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>91800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>77000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>91500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>71400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>74600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>97600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>93600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>43000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>63700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>58200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>85100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>31700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E42" s="3">
         <v>226900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>78100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>92300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>237700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>676900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>804500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>544100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>630200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>695700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>424900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>471800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>419200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>179500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>79100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>68200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>89000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>157000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>87800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>47700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>22900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>68900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>48900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>29600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>34400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>63400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>30400</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,117 +3888,123 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>186400</v>
+      </c>
+      <c r="E48" s="3">
         <v>186700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>153100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>150500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>132700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>131800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>132400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>123600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>120700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>121900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>123500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>124900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>125100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>108000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>105000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>96700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>97100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>94600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>74800</v>
-      </c>
-      <c r="V48" s="3">
-        <v>62300</v>
       </c>
       <c r="W48" s="3">
         <v>62300</v>
       </c>
       <c r="X48" s="3">
+        <v>62300</v>
+      </c>
+      <c r="Y48" s="3">
         <v>57400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>46400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>46200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>44800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>45400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>34600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>272500</v>
+      </c>
+      <c r="E49" s="3">
         <v>271800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>180300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>178800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>156900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>156700</v>
       </c>
       <c r="I49" s="3">
         <v>156700</v>
       </c>
       <c r="J49" s="3">
-        <v>156900</v>
+        <v>156700</v>
       </c>
       <c r="K49" s="3">
         <v>156900</v>
@@ -3905,7 +4016,7 @@
         <v>156900</v>
       </c>
       <c r="N49" s="3">
-        <v>158600</v>
+        <v>156900</v>
       </c>
       <c r="O49" s="3">
         <v>158600</v>
@@ -3917,46 +4028,49 @@
         <v>158600</v>
       </c>
       <c r="R49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="S49" s="3">
         <v>118600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>119200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>119900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>89800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>54400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>54900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>47700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>20000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>20400</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>20200</v>
       </c>
       <c r="AB49" s="3">
         <v>20200</v>
       </c>
       <c r="AC49" s="3">
-        <v>13800</v>
+        <v>20200</v>
       </c>
       <c r="AD49" s="3">
         <v>13800</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7862100</v>
+      </c>
+      <c r="E54" s="3">
         <v>8017300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6461700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6454800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6037400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6196100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6077400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5511900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5509700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5442800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5152800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5164200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5084900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4061800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3941900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3481900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3472600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3533000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3004000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2508900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2481700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2299400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1813200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1788000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1789600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1783200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1277400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1266600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,79 +4579,80 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>400</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>300</v>
       </c>
       <c r="AA57" s="3">
         <v>300</v>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,65 +4755,68 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
         <v>6600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>4400</v>
       </c>
       <c r="S59" s="3">
         <v>4400</v>
       </c>
       <c r="T59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="U59" s="3">
         <v>3600</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4689,8 +4826,8 @@
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4707,8 +4844,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4793,16 +4933,19 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E61" s="3">
         <v>156000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>146900</v>
       </c>
       <c r="F61" s="3">
         <v>146900</v>
@@ -4814,7 +4957,7 @@
         <v>146900</v>
       </c>
       <c r="I61" s="3">
-        <v>146800</v>
+        <v>146900</v>
       </c>
       <c r="J61" s="3">
         <v>146800</v>
@@ -4826,22 +4969,22 @@
         <v>146800</v>
       </c>
       <c r="M61" s="3">
+        <v>146800</v>
+      </c>
+      <c r="N61" s="3">
         <v>146900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>147000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>83100</v>
       </c>
       <c r="P61" s="3">
         <v>83100</v>
       </c>
       <c r="Q61" s="3">
+        <v>83100</v>
+      </c>
+      <c r="R61" s="3">
         <v>80700</v>
-      </c>
-      <c r="R61" s="3">
-        <v>80600</v>
       </c>
       <c r="S61" s="3">
         <v>80600</v>
@@ -4850,16 +4993,16 @@
         <v>80600</v>
       </c>
       <c r="U61" s="3">
+        <v>80600</v>
+      </c>
+      <c r="V61" s="3">
         <v>80500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>75100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>75200</v>
-      </c>
-      <c r="X61" s="3">
-        <v>10300</v>
       </c>
       <c r="Y61" s="3">
         <v>10300</v>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>10300</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6962700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7120900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5815100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5833400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5477000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5605700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5401200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4843200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4849700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4798800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4507900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4525800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4457100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3505900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3398200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3003800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3006300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3078600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2640700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2220100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2195900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2040900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1590800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1621000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1626700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1624200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1122800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1154000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5597,10 +5765,13 @@
         <v>0</v>
       </c>
       <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>279400</v>
+      </c>
+      <c r="E72" s="3">
         <v>262400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>252600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>241100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>231700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>219600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>206200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>193800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>180800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>168200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>154200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>141500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>131700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>116900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>110500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>100100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>89200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>78600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>72000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>65900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>61400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>57100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>53700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>51600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>47300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>45300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>44500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>899400</v>
+      </c>
+      <c r="E76" s="3">
         <v>896400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>646700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>621500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>560500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>590400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>676200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>668700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>660100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>643900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>644800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>638400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>627800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>555900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>543700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>478100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>466300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>454300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>363300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>288800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>285800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>258500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>222500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>167000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>162900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>159000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>154500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16300</v>
+        <v>23800</v>
       </c>
       <c r="E81" s="3">
         <v>16300</v>
       </c>
       <c r="F81" s="3">
+        <v>16300</v>
+      </c>
+      <c r="G81" s="3">
         <v>14000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6900</v>
-      </c>
-      <c r="V81" s="3">
-        <v>5200</v>
       </c>
       <c r="W81" s="3">
         <v>5200</v>
       </c>
       <c r="X81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>4000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>-1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>-600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>-200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E89" s="3">
         <v>4700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21600</v>
       </c>
-      <c r="F89" s="3">
-        <v>23200</v>
-      </c>
       <c r="G89" s="3">
-        <v>22100</v>
+        <v>23000</v>
       </c>
       <c r="H89" s="3">
+        <v>22200</v>
+      </c>
+      <c r="I89" s="3">
         <v>23100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>18900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>14000</v>
       </c>
       <c r="Q89" s="3">
         <v>14000</v>
       </c>
       <c r="R89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="S89" s="3">
         <v>13500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>11100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>14600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>8900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>6900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-4400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E94" s="3">
         <v>289900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-332700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-325000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>103100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-119600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-122800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-68000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-211700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-20500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>49300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-32500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-17800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-34100</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-61900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-45400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-25200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,79 +7653,80 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-6400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-4700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-4500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2500</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-2100</v>
       </c>
       <c r="O96" s="3">
         <v>-2100</v>
       </c>
       <c r="P96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1300</v>
       </c>
       <c r="S96" s="3">
         <v>-1300</v>
       </c>
       <c r="T96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-700</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-600</v>
       </c>
       <c r="W96" s="3">
         <v>-600</v>
       </c>
       <c r="X96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-300</v>
       </c>
       <c r="AA96" s="3">
         <v>-300</v>
@@ -7501,13 +7735,16 @@
         <v>-300</v>
       </c>
       <c r="AC96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AD96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-178600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-106400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-22100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-184900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-135300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>184800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>140500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>46300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>286500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-23900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>73800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>451000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>11500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-79400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>102300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-21100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>23400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-38900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>81100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>27200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-8100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>128600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>11900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-139400</v>
+      </c>
+      <c r="E102" s="3">
         <v>188200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-192900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-445800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-117100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>262400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-105200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-50800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>250700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-41200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>64600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>252400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>117900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-82600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>89500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>36700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-42100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>70600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-55900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>86400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-8000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>15300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBMS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>FBMS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,226 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E8" s="3">
         <v>86200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>80300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>57900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>53900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>42700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>43900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>44400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>43200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>45200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>45600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>46300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>45800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>41600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>40400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>37200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>37600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>33300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>30600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>25600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>25000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>18800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>17100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>16700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>16500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>15800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>11900</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1380,8 +1403,8 @@
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
-        <v>-1100</v>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L15" s="3">
         <v>-1100</v>
@@ -1389,21 +1412,21 @@
       <c r="M15" s="3">
         <v>-1100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="N15" s="3">
         <v>-1100</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P15" s="3">
         <v>-1100</v>
       </c>
       <c r="Q15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R15" s="3">
         <v>-900</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1416,8 +1439,8 @@
       <c r="V15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E17" s="3">
         <v>21400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2000</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>1900</v>
       </c>
       <c r="AB17" s="3">
         <v>1900</v>
       </c>
       <c r="AC17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AD17" s="3">
         <v>1600</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>1300</v>
       </c>
       <c r="AE17" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E18" s="3">
         <v>64800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>53900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>47200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>44900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>41500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>38600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>40900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>39300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>38800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>38200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>32600</v>
       </c>
       <c r="R18" s="3">
         <v>32600</v>
       </c>
       <c r="S18" s="3">
+        <v>32600</v>
+      </c>
+      <c r="T18" s="3">
         <v>29400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>30000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>26000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>24700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>21200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>20700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>16100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>15100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>14800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>14600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>14200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>10600</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,186 +1717,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-34500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-33000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-26900</v>
       </c>
       <c r="G20" s="3">
         <v>-26900</v>
       </c>
       <c r="H20" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="I20" s="3">
         <v>-22200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-17400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-21200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-18600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-17800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-20400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-23900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-22600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-17300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-13700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-14200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-16400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-15900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-14700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-8200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-11300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-12800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-7500</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E21" s="3">
         <v>29300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>24200</v>
       </c>
-      <c r="F21" s="3">
-        <v>26900</v>
-      </c>
       <c r="G21" s="3">
-        <v>17000</v>
+        <v>23500</v>
       </c>
       <c r="H21" s="3">
+        <v>20400</v>
+      </c>
+      <c r="I21" s="3">
         <v>22200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>22800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>24800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>18200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>16800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>16400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>10300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>10000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>6200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>5700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>7800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>3000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,186 +1991,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E23" s="3">
         <v>30300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>15800</v>
       </c>
       <c r="T23" s="3">
         <v>15800</v>
       </c>
       <c r="U23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="V23" s="3">
         <v>9700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>6300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>6600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>3200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E24" s="3">
         <v>6500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3800</v>
-      </c>
-      <c r="U24" s="3">
-        <v>2000</v>
       </c>
       <c r="V24" s="3">
         <v>2000</v>
       </c>
       <c r="W24" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="X24" s="3">
         <v>1400</v>
       </c>
       <c r="Y24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z24" s="3">
         <v>1000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>900</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E26" s="3">
         <v>23800</v>
-      </c>
-      <c r="E26" s="3">
-        <v>16300</v>
       </c>
       <c r="F26" s="3">
         <v>16300</v>
       </c>
       <c r="G26" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H26" s="3">
         <v>14000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6900</v>
-      </c>
-      <c r="W26" s="3">
-        <v>5200</v>
       </c>
       <c r="X26" s="3">
         <v>5200</v>
       </c>
       <c r="Y26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Z26" s="3">
         <v>4000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>4700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E27" s="3">
         <v>23800</v>
-      </c>
-      <c r="E27" s="3">
-        <v>16300</v>
       </c>
       <c r="F27" s="3">
         <v>16300</v>
       </c>
       <c r="G27" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H27" s="3">
         <v>14000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6900</v>
-      </c>
-      <c r="W27" s="3">
-        <v>5200</v>
       </c>
       <c r="X27" s="3">
         <v>5200</v>
       </c>
       <c r="Y27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Z27" s="3">
         <v>4000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>4700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>2200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2538,17 +2599,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
@@ -2556,12 +2617,12 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E32" s="3">
         <v>34500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>33000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>26900</v>
       </c>
       <c r="G32" s="3">
         <v>26900</v>
       </c>
       <c r="H32" s="3">
+        <v>26900</v>
+      </c>
+      <c r="I32" s="3">
         <v>22200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>17400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>21200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>18600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>17800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>20400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>23900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>19000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>22600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>17300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>13700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>14200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>16400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>15900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>14700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>14000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>11200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>8800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>8200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>11300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>12800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>7500</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E33" s="3">
         <v>23800</v>
-      </c>
-      <c r="E33" s="3">
-        <v>16300</v>
       </c>
       <c r="F33" s="3">
         <v>16300</v>
       </c>
       <c r="G33" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H33" s="3">
         <v>14000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>12000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6900</v>
-      </c>
-      <c r="W33" s="3">
-        <v>5200</v>
       </c>
       <c r="X33" s="3">
         <v>5200</v>
       </c>
       <c r="Y33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Z33" s="3">
         <v>4000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>2200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E35" s="3">
         <v>23800</v>
-      </c>
-      <c r="E35" s="3">
-        <v>16300</v>
       </c>
       <c r="F35" s="3">
         <v>16300</v>
       </c>
       <c r="G35" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H35" s="3">
         <v>14000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>12000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6900</v>
-      </c>
-      <c r="W35" s="3">
-        <v>5200</v>
       </c>
       <c r="X35" s="3">
         <v>5200</v>
       </c>
       <c r="Y35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Z35" s="3">
         <v>4000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>2200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,186 +3354,193 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E41" s="3">
         <v>105800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>106600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>67200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>71600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>119100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>125700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>115200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>113200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>132300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>117500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>137700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>131900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>119900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>107300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>89700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>91800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>77000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>91500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>71400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>74600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>97600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>93600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>43000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>63700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>58200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>85100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>31700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>47900</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E42" s="3">
         <v>88300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>226900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>78100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>92300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>237700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>676900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>804500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>544100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>630200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>695700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>424900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>471800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>419200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>179500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>79100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>68200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>89000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>157000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>87800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>47700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>22900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>68900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>48900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>29600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>34400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>63400</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>30400</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,123 +3996,129 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>183700</v>
+      </c>
+      <c r="E48" s="3">
         <v>186400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>186700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>153100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>150500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>132700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>131800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>132400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>123600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>120700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>121900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>123500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>124900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>125100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>108000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>105000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>96700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>97100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>94600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>74800</v>
-      </c>
-      <c r="W48" s="3">
-        <v>62300</v>
       </c>
       <c r="X48" s="3">
         <v>62300</v>
       </c>
       <c r="Y48" s="3">
+        <v>62300</v>
+      </c>
+      <c r="Z48" s="3">
         <v>57400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>46400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>46200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>44800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>45400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>34600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>272700</v>
+      </c>
+      <c r="E49" s="3">
         <v>272500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>271800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>180300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>178800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>156900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>156700</v>
       </c>
       <c r="J49" s="3">
         <v>156700</v>
       </c>
       <c r="K49" s="3">
-        <v>156900</v>
+        <v>156700</v>
       </c>
       <c r="L49" s="3">
         <v>156900</v>
@@ -4019,7 +4130,7 @@
         <v>156900</v>
       </c>
       <c r="O49" s="3">
-        <v>158600</v>
+        <v>156900</v>
       </c>
       <c r="P49" s="3">
         <v>158600</v>
@@ -4031,46 +4142,49 @@
         <v>158600</v>
       </c>
       <c r="S49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="T49" s="3">
         <v>118600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>119200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>119900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>89800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>54400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>54900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>47700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>20000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>20400</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>20200</v>
       </c>
       <c r="AC49" s="3">
         <v>20200</v>
       </c>
       <c r="AD49" s="3">
-        <v>13800</v>
+        <v>20200</v>
       </c>
       <c r="AE49" s="3">
         <v>13800</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7884300</v>
+      </c>
+      <c r="E54" s="3">
         <v>7862100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8017300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6461700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6454800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6037400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6196100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6077400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5511900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5509700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5442800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5152800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5164200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5084900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4061800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3941900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3481900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3472600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3533000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3004000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2508900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2481700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2299400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1813200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1788000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1789600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1783200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1277400</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1266600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,82 +4710,83 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E57" s="3">
         <v>8000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>400</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>300</v>
       </c>
       <c r="AB57" s="3">
         <v>300</v>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,68 +4892,71 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E59" s="3">
         <v>6400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6500</v>
-      </c>
-      <c r="S59" s="3">
-        <v>4400</v>
       </c>
       <c r="T59" s="3">
         <v>4400</v>
       </c>
       <c r="U59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="V59" s="3">
         <v>3600</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4829,8 +4966,8 @@
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4936,19 +5076,22 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>130100</v>
+      </c>
+      <c r="E61" s="3">
         <v>130000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>156000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>146900</v>
       </c>
       <c r="G61" s="3">
         <v>146900</v>
@@ -4960,7 +5103,7 @@
         <v>146900</v>
       </c>
       <c r="J61" s="3">
-        <v>146800</v>
+        <v>146900</v>
       </c>
       <c r="K61" s="3">
         <v>146800</v>
@@ -4972,22 +5115,22 @@
         <v>146800</v>
       </c>
       <c r="N61" s="3">
+        <v>146800</v>
+      </c>
+      <c r="O61" s="3">
         <v>146900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>147000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>83100</v>
       </c>
       <c r="Q61" s="3">
         <v>83100</v>
       </c>
       <c r="R61" s="3">
+        <v>83100</v>
+      </c>
+      <c r="S61" s="3">
         <v>80700</v>
-      </c>
-      <c r="S61" s="3">
-        <v>80600</v>
       </c>
       <c r="T61" s="3">
         <v>80600</v>
@@ -4996,16 +5139,16 @@
         <v>80600</v>
       </c>
       <c r="V61" s="3">
+        <v>80600</v>
+      </c>
+      <c r="W61" s="3">
         <v>80500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>75100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>75200</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>10300</v>
       </c>
       <c r="Z61" s="3">
         <v>10300</v>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>10300</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6987100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6962700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7120900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5815100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5833400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5477000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5605700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5401200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4843200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4849700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4798800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4507900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4525800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4457100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3505900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3398200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3003800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3006300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3078600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2640700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2220100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2195900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2040900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1590800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1621000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1626700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1624200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1122800</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1154000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5768,10 +5936,13 @@
         <v>0</v>
       </c>
       <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>296600</v>
+      </c>
+      <c r="E72" s="3">
         <v>279400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>262400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>252600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>241100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>231700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>219600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>206200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>193800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>180800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>168200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>154200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>141500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>131700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>116900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>110500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>100100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>89200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>78600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>72000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>65900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>61400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>57100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>53700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>51600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>47300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>45300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>44500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>897200</v>
+      </c>
+      <c r="E76" s="3">
         <v>899400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>896400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>646700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>621500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>560500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>590400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>676200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>668700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>660100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>643900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>644800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>638400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>627800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>555900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>543700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>478100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>466300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>454300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>363300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>288800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>285800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>258500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>222500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>167000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>162900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>159000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>154500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>95500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E81" s="3">
         <v>23800</v>
-      </c>
-      <c r="E81" s="3">
-        <v>16300</v>
       </c>
       <c r="F81" s="3">
         <v>16300</v>
       </c>
       <c r="G81" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H81" s="3">
         <v>14000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>12000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6900</v>
-      </c>
-      <c r="W81" s="3">
-        <v>5200</v>
       </c>
       <c r="X81" s="3">
         <v>5200</v>
       </c>
       <c r="Y81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Z81" s="3">
         <v>4000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>2200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>-1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3300</v>
       </c>
-      <c r="F83" s="3">
-        <v>6600</v>
-      </c>
       <c r="G83" s="3">
-        <v>-1000</v>
+        <v>3200</v>
       </c>
       <c r="H83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I83" s="3">
         <v>3000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>-600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>-200</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E89" s="3">
         <v>34100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4700</v>
       </c>
-      <c r="F89" s="3">
-        <v>21600</v>
-      </c>
       <c r="G89" s="3">
-        <v>23000</v>
+        <v>18200</v>
       </c>
       <c r="H89" s="3">
+        <v>26400</v>
+      </c>
+      <c r="I89" s="3">
         <v>22200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>23100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>18800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>14000</v>
       </c>
       <c r="R89" s="3">
         <v>14000</v>
       </c>
       <c r="S89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="T89" s="3">
         <v>13500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>11100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>14600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>8900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>4100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>6900</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
-        <v>-9800</v>
-      </c>
       <c r="G91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O91" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="U91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="V91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="AD91" s="3">
         <v>-2100</v>
       </c>
-      <c r="P91" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-800</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AC91" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-4400</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E94" s="3">
         <v>5100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>289900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-31300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-332700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-325000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>103100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-119600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-122800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-68000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-32300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-211700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-20500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>49300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-32500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-17800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-34100</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-61900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-45400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-25200</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-24300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,82 +7887,83 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-6700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-6400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-4700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-4500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2500</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-2100</v>
       </c>
       <c r="P96" s="3">
         <v>-2100</v>
       </c>
       <c r="Q96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-1300</v>
       </c>
       <c r="T96" s="3">
         <v>-1300</v>
       </c>
       <c r="U96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-700</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-600</v>
       </c>
       <c r="X96" s="3">
         <v>-600</v>
       </c>
       <c r="Y96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-300</v>
       </c>
       <c r="AB96" s="3">
         <v>-300</v>
@@ -7738,13 +7972,16 @@
         <v>-300</v>
       </c>
       <c r="AD96" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="AE96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-178600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-106400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-22100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-184900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-135300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>184800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>140500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>46300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>286500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-23900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>73800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>451000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>11500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-79400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>102300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-21100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>23400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-38900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>81100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>27200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-8100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>128600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>11900</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-139400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>188200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-192900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-445800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-117100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>262400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-105200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-50800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>250700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-41200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>64600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>252400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>117900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-82600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>89500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>36700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-42100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>70600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-55900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>86400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-8000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>15300</v>
       </c>
     </row>
